--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253B9316-98D0-4483-AE5F-94DCFA08665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE68EFCD-34E8-40EF-8620-BB65CEECF80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="3360" windowWidth="21600" windowHeight="11295" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="For Report" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="298">
   <si>
     <t>Depth</t>
   </si>
@@ -826,6 +826,120 @@
   </si>
   <si>
     <t>[Eur/km]</t>
+  </si>
+  <si>
+    <t>Learning Rate 2030</t>
+  </si>
+  <si>
+    <t>Learning Rate 2050</t>
+  </si>
+  <si>
+    <t>Tank Capacity</t>
+  </si>
+  <si>
+    <t>Density NH3</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>NAYAKLUKE2021191</t>
+  </si>
+  <si>
+    <t>CAPEX_NH3tank NH3</t>
+  </si>
+  <si>
+    <t>[% of CAPEX]</t>
+  </si>
+  <si>
+    <t>Density LH2</t>
+  </si>
+  <si>
+    <t>CAPEX_LH2tank</t>
+  </si>
+  <si>
+    <t>[ktons]</t>
+  </si>
+  <si>
+    <t>Tank Volume Capacity</t>
+  </si>
+  <si>
+    <t>[m3]</t>
+  </si>
+  <si>
+    <t>[tons]</t>
+  </si>
+  <si>
+    <t>CAPEX_NH3tank*LearningRate/TankVolumeCapacity</t>
+  </si>
+  <si>
+    <t>CAPEX_NH3</t>
+  </si>
+  <si>
+    <t>CAPEX_LH2</t>
+  </si>
+  <si>
+    <t>CAPEX_LH2tank*LearningRate/TankVolumeCapacity</t>
+  </si>
+  <si>
+    <t>Brandle</t>
+  </si>
+  <si>
+    <t>phi j=1</t>
+  </si>
+  <si>
+    <t>phi j=2</t>
+  </si>
+  <si>
+    <t>phi j=3</t>
+  </si>
+  <si>
+    <t>phi j=4</t>
+  </si>
+  <si>
+    <t>nu j=1</t>
+  </si>
+  <si>
+    <t>nu j=2</t>
+  </si>
+  <si>
+    <t>nu j=3</t>
+  </si>
+  <si>
+    <t>nu j=4</t>
+  </si>
+  <si>
+    <t>[m3/electrolyzer]</t>
+  </si>
+  <si>
+    <t>C_FPSO*C_ship</t>
+  </si>
+  <si>
+    <t>bluewater</t>
+  </si>
+  <si>
+    <t>nu j=2,4</t>
+  </si>
+  <si>
+    <t>nu j=1,4</t>
+  </si>
+  <si>
+    <t>lee</t>
+  </si>
+  <si>
+    <t>tycho</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>dinh</t>
+  </si>
+  <si>
+    <t>C_l,n=1,j=3,4</t>
+  </si>
+  <si>
+    <t>C_l,n=2,j</t>
   </si>
 </sst>
 </file>
@@ -833,7 +947,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -892,15 +1006,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1500,6 +1615,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="384438703"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2172,6 +2288,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2437,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35887E1-BF77-499A-ABB6-DF69F4785B7F}">
   <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33:W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4752,7 +4872,107 @@
         <v>24625.762656720326</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>34</v>
+      </c>
+      <c r="S33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T33" t="s">
+        <v>220</v>
+      </c>
+      <c r="U33" t="s">
+        <v>221</v>
+      </c>
+      <c r="V33" t="s">
+        <v>296</v>
+      </c>
+      <c r="W33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>2020</v>
+      </c>
+      <c r="T34">
+        <v>82.773022106121246</v>
+      </c>
+      <c r="U34">
+        <v>781.6311731151402</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>90.615628357904839</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R35" s="8">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>2023</v>
+      </c>
+      <c r="T35">
+        <v>80.289831442937711</v>
+      </c>
+      <c r="U35">
+        <v>758.18223792168521</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>90.615628357904839</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R36" s="8">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>2026</v>
+      </c>
+      <c r="T36">
+        <v>77.806640779753963</v>
+      </c>
+      <c r="U36">
+        <v>734.73330272823193</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>90.615628357904839</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R37" s="8">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>2029</v>
+      </c>
+      <c r="T37">
+        <v>75.323450116570413</v>
+      </c>
+      <c r="U37">
+        <v>711.28436753477695</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>90.615628357904839</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>248</v>
       </c>
@@ -4765,8 +4985,26 @@
       <c r="F38" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="R38" s="8">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>2032</v>
+      </c>
+      <c r="T38">
+        <v>70.77093390073405</v>
+      </c>
+      <c r="U38">
+        <v>668.29465301345385</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>90.615628357904839</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>245</v>
       </c>
@@ -4783,8 +5021,26 @@
       <c r="F39">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="R39" s="8">
+        <v>5</v>
+      </c>
+      <c r="S39">
+        <v>2035</v>
+      </c>
+      <c r="T39">
+        <v>65.183754908570592</v>
+      </c>
+      <c r="U39">
+        <v>615.53454882817641</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>90.615628357904839</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>246</v>
       </c>
@@ -4801,8 +5057,26 @@
       <c r="F40">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="R40" s="8">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>2038</v>
+      </c>
+      <c r="T40">
+        <v>59.596575916407573</v>
+      </c>
+      <c r="U40">
+        <v>562.77444464290625</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>90.615628357904839</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>247</v>
       </c>
@@ -4819,8 +5093,46 @@
       <c r="F41">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="R41" s="8">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>2041</v>
+      </c>
+      <c r="T41">
+        <v>54.009396924244555</v>
+      </c>
+      <c r="U41">
+        <v>510.01434045763608</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>90.615628357904839</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="R42" s="8">
+        <v>8</v>
+      </c>
+      <c r="S42">
+        <v>2044</v>
+      </c>
+      <c r="T42">
+        <v>48.422217932081097</v>
+      </c>
+      <c r="U42">
+        <v>457.25423627236597</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>90.615628357904839</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>255</v>
       </c>
@@ -4830,8 +5142,26 @@
       <c r="E43" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="R43" s="8">
+        <v>9</v>
+      </c>
+      <c r="S43">
+        <v>2047</v>
+      </c>
+      <c r="T43">
+        <v>42.835038939918078</v>
+      </c>
+      <c r="U43">
+        <v>404.49413208708836</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>90.615628357904839</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>256</v>
       </c>
@@ -4841,8 +5171,26 @@
       <c r="E44">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="R44" s="8">
+        <v>10</v>
+      </c>
+      <c r="S44">
+        <v>2050</v>
+      </c>
+      <c r="T44">
+        <v>37.24785994775462</v>
+      </c>
+      <c r="U44">
+        <v>351.73402790181819</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>90.615628357904839</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>257</v>
       </c>
@@ -4853,7 +5201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>258</v>
       </c>
@@ -4872,10 +5220,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C84FA7E-C77D-4447-B7ED-FCE498C1C97C}">
-  <dimension ref="A10:AF14"/>
+  <dimension ref="A10:AF50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5367,6 +5715,464 @@
         <v>351.73402790181819</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21">
+        <v>681.97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22">
+        <v>36658.50403976714</v>
+      </c>
+      <c r="C22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23">
+        <v>24534000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25">
+        <v>0.9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30">
+        <v>3190</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
+      <c r="D30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32">
+        <v>44929.577464788737</v>
+      </c>
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33">
+        <v>272600000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2020</v>
+      </c>
+      <c r="C46">
+        <v>2023</v>
+      </c>
+      <c r="D46">
+        <v>2026</v>
+      </c>
+      <c r="E46">
+        <v>2029</v>
+      </c>
+      <c r="F46">
+        <v>2032</v>
+      </c>
+      <c r="G46">
+        <v>2035</v>
+      </c>
+      <c r="H46">
+        <v>2038</v>
+      </c>
+      <c r="I46">
+        <v>2041</v>
+      </c>
+      <c r="J46">
+        <v>2044</v>
+      </c>
+      <c r="K46">
+        <v>2047</v>
+      </c>
+      <c r="L46">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47">
+        <v>82.773022106121246</v>
+      </c>
+      <c r="C47">
+        <v>80.289831442937711</v>
+      </c>
+      <c r="D47">
+        <v>77.806640779753963</v>
+      </c>
+      <c r="E47">
+        <v>75.323450116570413</v>
+      </c>
+      <c r="F47">
+        <v>70.77093390073405</v>
+      </c>
+      <c r="G47">
+        <v>65.183754908570592</v>
+      </c>
+      <c r="H47">
+        <v>59.596575916407573</v>
+      </c>
+      <c r="I47">
+        <v>54.009396924244555</v>
+      </c>
+      <c r="J47">
+        <v>48.422217932081097</v>
+      </c>
+      <c r="K47">
+        <v>42.835038939918078</v>
+      </c>
+      <c r="L47">
+        <v>37.24785994775462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48">
+        <v>781.6311731151402</v>
+      </c>
+      <c r="C48">
+        <v>758.18223792168521</v>
+      </c>
+      <c r="D48">
+        <v>734.73330272823193</v>
+      </c>
+      <c r="E48">
+        <v>711.28436753477695</v>
+      </c>
+      <c r="F48">
+        <v>668.29465301345385</v>
+      </c>
+      <c r="G48">
+        <v>615.53454882817641</v>
+      </c>
+      <c r="H48">
+        <v>562.77444464290625</v>
+      </c>
+      <c r="I48">
+        <v>510.01434045763608</v>
+      </c>
+      <c r="J48">
+        <v>457.25423627236597</v>
+      </c>
+      <c r="K48">
+        <v>404.49413208708836</v>
+      </c>
+      <c r="L48">
+        <v>351.73402790181819</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>296</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>297</v>
+      </c>
+      <c r="B50">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="C50">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="D50">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="E50">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="F50">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="G50">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="H50">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="I50">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="J50">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="K50">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="L50">
+        <v>90.615628357904839</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5374,73 +6180,226 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400623A1-A95B-4085-951C-DF76D8D165BA}">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2">
+        <f>(0.08*(1+0.08)^B6)/((1+0.08)^B6-1)</f>
+        <v>9.3678779051968114E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>212</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>106</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>213</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <f>8*0.94</f>
         <v>7.52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>797.12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>15.942400000000001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="B8">
-        <v>797.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>279</v>
       </c>
       <c r="B9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.8509471088487274E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>280</v>
       </c>
       <c r="B10">
-        <v>15.942400000000001</v>
+        <v>0.1380921</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>281</v>
       </c>
       <c r="B11">
-        <v>90.615628357904839</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13">
+        <v>1109.423315</v>
+      </c>
+      <c r="C13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14">
+        <v>900.79686700486923</v>
+      </c>
+      <c r="C14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -12461,8 +13420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479FC67D-2E51-465D-9A9F-97B4D21DB2EC}">
   <dimension ref="A1:AQ51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15222,8 +16181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D986E9-831C-4CFA-BA20-93A75977E223}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15392,6 +16351,9 @@
       <c r="B13">
         <f>B14/B15</f>
         <v>0.4861111111111111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -16155,7 +17117,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE68EFCD-34E8-40EF-8620-BB65CEECF80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238E3C53-45D1-4C46-B129-CB3F8C7EFCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15765" yWindow="0" windowWidth="13140" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="For Report" sheetId="11" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="NH3 (j=4)" sheetId="8" r:id="rId9"/>
     <sheet name="Storage (n=1)" sheetId="9" r:id="rId10"/>
     <sheet name="FPSO (n=2)" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="329">
   <si>
     <t>Depth</t>
   </si>
@@ -940,14 +942,109 @@
   </si>
   <si>
     <t>C_l,n=2,j</t>
+  </si>
+  <si>
+    <t>a*CAPEX</t>
+  </si>
+  <si>
+    <t>Total CAPEX</t>
+  </si>
+  <si>
+    <t>AWE</t>
+  </si>
+  <si>
+    <t>kwh/kg</t>
+  </si>
+  <si>
+    <t>*1000</t>
+  </si>
+  <si>
+    <t>wh/kg</t>
+  </si>
+  <si>
+    <t>wh/ton</t>
+  </si>
+  <si>
+    <t>2% annual cost decline</t>
+  </si>
+  <si>
+    <t>New Numbers</t>
+  </si>
+  <si>
+    <t>Other costs</t>
+  </si>
+  <si>
+    <t>(Lensink &amp; Pisca, 2019)</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>%/MW</t>
+  </si>
+  <si>
+    <t>cap-2^b</t>
+  </si>
+  <si>
+    <t>b=-0.133</t>
+  </si>
+  <si>
+    <t>Total Cap</t>
+  </si>
+  <si>
+    <t>Structures</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Modules per structure</t>
+  </si>
+  <si>
+    <t>Cap per structure</t>
+  </si>
+  <si>
+    <t>kWp</t>
+  </si>
+  <si>
+    <t>Solar duck</t>
+  </si>
+  <si>
+    <t>Wp</t>
+  </si>
+  <si>
+    <t>cap per platform</t>
+  </si>
+  <si>
+    <t>cap per module</t>
+  </si>
+  <si>
+    <t>platforms in structure</t>
+  </si>
+  <si>
+    <t>cap per structure</t>
+  </si>
+  <si>
+    <t>MWp</t>
+  </si>
+  <si>
+    <t>Units per structure</t>
+  </si>
+  <si>
+    <t>Modules per unit</t>
+  </si>
+  <si>
+    <t>Cap per unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1002,11 +1099,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1015,9 +1113,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2288,10 +2390,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2557,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35887E1-BF77-499A-ABB6-DF69F4785B7F}">
   <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33:W44"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,7 +4991,7 @@
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R34" s="8">
+      <c r="R34">
         <v>0</v>
       </c>
       <c r="S34">
@@ -4913,7 +5011,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R35" s="8">
+      <c r="R35">
         <v>1</v>
       </c>
       <c r="S35">
@@ -4933,7 +5031,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R36" s="8">
+      <c r="R36">
         <v>2</v>
       </c>
       <c r="S36">
@@ -4953,7 +5051,7 @@
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R37" s="8">
+      <c r="R37">
         <v>3</v>
       </c>
       <c r="S37">
@@ -4985,7 +5083,7 @@
       <c r="F38" t="s">
         <v>254</v>
       </c>
-      <c r="R38" s="8">
+      <c r="R38">
         <v>4</v>
       </c>
       <c r="S38">
@@ -5021,7 +5119,7 @@
       <c r="F39">
         <v>24</v>
       </c>
-      <c r="R39" s="8">
+      <c r="R39">
         <v>5</v>
       </c>
       <c r="S39">
@@ -5057,7 +5155,7 @@
       <c r="F40">
         <v>23</v>
       </c>
-      <c r="R40" s="8">
+      <c r="R40">
         <v>6</v>
       </c>
       <c r="S40">
@@ -5093,7 +5191,7 @@
       <c r="F41">
         <v>22</v>
       </c>
-      <c r="R41" s="8">
+      <c r="R41">
         <v>7</v>
       </c>
       <c r="S41">
@@ -5113,7 +5211,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="R42" s="8">
+      <c r="R42">
         <v>8</v>
       </c>
       <c r="S42">
@@ -5142,7 +5240,7 @@
       <c r="E43" t="s">
         <v>254</v>
       </c>
-      <c r="R43" s="8">
+      <c r="R43">
         <v>9</v>
       </c>
       <c r="S43">
@@ -5171,7 +5269,7 @@
       <c r="E44">
         <v>24</v>
       </c>
-      <c r="R44" s="8">
+      <c r="R44">
         <v>10</v>
       </c>
       <c r="S44">
@@ -6407,17 +6505,244 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57FBD05-EA18-438B-ABC2-7A206271C6C5}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <f>($B$3*(1+$B$3)^A4)/((1+$B$3)^A4-1)</f>
+        <v>9.3678779051968114E-2</v>
+      </c>
+      <c r="D4">
+        <f>D2*B4</f>
+        <v>9367.8779051968122</v>
+      </c>
+      <c r="E4">
+        <f>D4*25</f>
+        <v>234196.94762992029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B22" si="0">($B$3*(1+$B$3)^A5)/((1+$B$3)^A5-1)</f>
+        <v>8.8827433387272267E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>8.5803264560679798E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>8.3860161500585326E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>8.2587284518093523E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>8.174285816161557E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>8.1177962857344244E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8.0797948763645655E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>8.0541345804786252E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>8.0367636236022291E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>8.0249840313034004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>80</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>8.0169867669210498E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>85</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>8.0115530724709297E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>8.0078592016998906E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>95</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>8.0053471627054007E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>8.0036384123000751E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>105</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>8.0024758826007431E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>110</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>8.0016848775376404E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>115</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>8.0011466222052935E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE5A957-E82B-4708-92FC-08447822ACFB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="J39" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7480,7 +7805,7 @@
         <v>3476869.5652173758</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -7527,6 +7852,1148 @@
       <c r="L33">
         <f>_xlfn.FORECAST.LINEAR(L29,$C$26:$C$27,$A$26:$A$27)</f>
         <v>281739.13043478131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>12000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>0.2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>0.1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" t="s">
+        <v>309</v>
+      </c>
+      <c r="N43" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" t="s">
+        <v>264</v>
+      </c>
+      <c r="S43">
+        <v>50</v>
+      </c>
+      <c r="T43">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44">
+        <v>50</v>
+      </c>
+      <c r="N44">
+        <v>2021</v>
+      </c>
+      <c r="O44">
+        <v>3000</v>
+      </c>
+      <c r="S44">
+        <v>250</v>
+      </c>
+      <c r="T44">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <f>($B$8*(1+$B$8)^$B$5)/((1+$B$8)^$B$5-1)</f>
+        <v>9.3678779051968114E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <v>100</v>
+      </c>
+      <c r="N45">
+        <v>2025</v>
+      </c>
+      <c r="O45">
+        <f>O44-P45</f>
+        <v>2736</v>
+      </c>
+      <c r="P45">
+        <f>O44*0.088</f>
+        <v>264</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>150</v>
+      </c>
+      <c r="N46">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>212</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47">
+        <v>200</v>
+      </c>
+      <c r="N47">
+        <v>2031</v>
+      </c>
+      <c r="O47" s="11">
+        <f>O45-P47</f>
+        <v>2495.232</v>
+      </c>
+      <c r="P47">
+        <f>O45*0.088</f>
+        <v>240.76799999999997</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>1060</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <v>250</v>
+      </c>
+      <c r="N48">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>350</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>307</v>
+      </c>
+      <c r="B50">
+        <v>278</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>308</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" t="s">
+        <v>309</v>
+      </c>
+      <c r="N51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52">
+        <v>1944</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>308</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52">
+        <f>_xlfn.FORECAST.LINEAR(N52,$S$43:$S$44,$T$43:$T$44)</f>
+        <v>35.714285714286234</v>
+      </c>
+      <c r="N52">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>308</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ref="M53:M82" si="16">_xlfn.FORECAST.LINEAR(N53,$S$43:$S$44,$T$43:$T$44)</f>
+        <v>50</v>
+      </c>
+      <c r="N53">
+        <v>2021</v>
+      </c>
+      <c r="O53">
+        <v>3200</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <f>M54-M53</f>
+        <v>14.285714285713766</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="16"/>
+        <v>64.285714285713766</v>
+      </c>
+      <c r="N54">
+        <v>2022</v>
+      </c>
+      <c r="O54">
+        <f>$O$53*(M54/$M$53)^LOG(1-0.088,2)</f>
+        <v>3094.8906124303685</v>
+      </c>
+      <c r="P54">
+        <f>O53-O54</f>
+        <v>105.10938756963151</v>
+      </c>
+      <c r="R54" t="s">
+        <v>311</v>
+      </c>
+      <c r="S54" t="s">
+        <v>312</v>
+      </c>
+      <c r="T54">
+        <f>1-2^-0.133</f>
+        <v>8.8066834480231115E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <f t="shared" ref="L55:L65" si="17">M55-M54</f>
+        <v>14.285714285713766</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="16"/>
+        <v>78.571428571427532</v>
+      </c>
+      <c r="N55">
+        <v>2023</v>
+      </c>
+      <c r="O55">
+        <f t="shared" ref="O55:O82" si="18">$O$53*(M55/$M$53)^LOG(1-0.088,2)</f>
+        <v>3013.4469103400429</v>
+      </c>
+      <c r="P55">
+        <f t="shared" ref="P55:S82" si="19">O54-O55</f>
+        <v>81.443702090325587</v>
+      </c>
+      <c r="Q55">
+        <f>P54-P55</f>
+        <v>23.665685479305921</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <f t="shared" si="17"/>
+        <v>14.285714285717404</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="16"/>
+        <v>92.857142857144936</v>
+      </c>
+      <c r="N56">
+        <v>2024</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="18"/>
+        <v>2947.2839336682123</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="19"/>
+        <v>66.16297667183062</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="19"/>
+        <v>15.280725418494967</v>
+      </c>
+      <c r="R56">
+        <f>Q55-Q56</f>
+        <v>8.384960060810954</v>
+      </c>
+      <c r="S56" s="10">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <f t="shared" si="17"/>
+        <v>14.285714285713766</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="16"/>
+        <v>107.1428571428587</v>
+      </c>
+      <c r="N57">
+        <v>2025</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="18"/>
+        <v>2891.7641938390088</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="19"/>
+        <v>55.519739829203445</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="19"/>
+        <v>10.643236842627175</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="19"/>
+        <v>4.637488575867792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <f t="shared" si="17"/>
+        <v>14.285714285713766</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="16"/>
+        <v>121.42857142857247</v>
+      </c>
+      <c r="N58">
+        <v>2026</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="18"/>
+        <v>2844.0619630596311</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="19"/>
+        <v>47.702230779377714</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="19"/>
+        <v>7.8175090498257305</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="19"/>
+        <v>2.8257277928014446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <f t="shared" si="17"/>
+        <v>14.285714285713766</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="16"/>
+        <v>135.71428571428623</v>
+      </c>
+      <c r="N59">
+        <v>2027</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="18"/>
+        <v>2802.3323409500554</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="19"/>
+        <v>41.729622109575757</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="19"/>
+        <v>5.9726086698019571</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="19"/>
+        <v>1.8449003800237733</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <f t="shared" si="17"/>
+        <v>14.285714285713766</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="16"/>
+        <v>150</v>
+      </c>
+      <c r="N60">
+        <v>2028</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="18"/>
+        <v>2765.306644910992</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="19"/>
+        <v>37.025696039063405</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="19"/>
+        <v>4.7039260705123525</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="19"/>
+        <v>1.2686825992896047</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <f t="shared" si="17"/>
+        <v>14.285714285713766</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="16"/>
+        <v>164.28571428571377</v>
+      </c>
+      <c r="N61">
+        <v>2029</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="18"/>
+        <v>2732.0763914343274</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="19"/>
+        <v>33.230253476664529</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="19"/>
+        <v>3.7954425623988755</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="19"/>
+        <v>0.908483508113477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <f t="shared" si="17"/>
+        <v>14.285714285713766</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="16"/>
+        <v>178.57142857142753</v>
+      </c>
+      <c r="N62">
+        <v>2030</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="18"/>
+        <v>2701.9695362359321</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="19"/>
+        <v>30.106855198395351</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="19"/>
+        <v>3.1233982782691783</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="19"/>
+        <v>0.67204428412969719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <f t="shared" si="17"/>
+        <v>14.285714285717404</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="16"/>
+        <v>192.85714285714494</v>
+      </c>
+      <c r="N63">
+        <v>2031</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="18"/>
+        <v>2674.475492445727</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="19"/>
+        <v>27.494043790205069</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="19"/>
+        <v>2.6128114081902822</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="19"/>
+        <v>0.51058687007889603</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <f t="shared" si="17"/>
+        <v>14.285714285713766</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="16"/>
+        <v>207.1428571428587</v>
+      </c>
+      <c r="N64">
+        <v>2032</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="18"/>
+        <v>2649.1975866177127</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="19"/>
+        <v>25.277905828014354</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="19"/>
+        <v>2.2161379621907145</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="19"/>
+        <v>0.39667344599956778</v>
+      </c>
+    </row>
+    <row r="65" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <f t="shared" si="17"/>
+        <v>14.285714285713766</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="16"/>
+        <v>221.42857142857247</v>
+      </c>
+      <c r="N65">
+        <v>2033</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="18"/>
+        <v>2625.821751068821</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="19"/>
+        <v>23.3758355488917</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="19"/>
+        <v>1.902070279122654</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="19"/>
+        <v>0.31406768306806043</v>
+      </c>
+    </row>
+    <row r="66" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f t="shared" si="16"/>
+        <v>235.71428571428623</v>
+      </c>
+      <c r="N66">
+        <v>2034</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="18"/>
+        <v>2604.0952391405631</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="19"/>
+        <v>21.726511928257878</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="19"/>
+        <v>1.6493236206338224</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="19"/>
+        <v>0.2527466584888316</v>
+      </c>
+    </row>
+    <row r="67" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <f t="shared" si="16"/>
+        <v>250</v>
+      </c>
+      <c r="N67">
+        <v>2035</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="18"/>
+        <v>2583.811753675875</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="19"/>
+        <v>20.283485464688056</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="19"/>
+        <v>1.4430264635698222</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="19"/>
+        <v>0.2062971570640002</v>
+      </c>
+    </row>
+    <row r="68" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <f t="shared" si="16"/>
+        <v>264.28571428571377</v>
+      </c>
+      <c r="N68">
+        <v>2036</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="18"/>
+        <v>2564.8008074452437</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="19"/>
+        <v>19.010946230631362</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="19"/>
+        <v>1.2725392340566941</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="19"/>
+        <v>0.17048722951312811</v>
+      </c>
+    </row>
+    <row r="69" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <f t="shared" si="16"/>
+        <v>278.57142857142753</v>
+      </c>
+      <c r="N69">
+        <v>2037</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="18"/>
+        <v>2546.9199519412955</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="19"/>
+        <v>17.880855503948169</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="19"/>
+        <v>1.1300907266831928</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="19"/>
+        <v>0.14244850737350134</v>
+      </c>
+    </row>
+    <row r="70" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <f t="shared" si="16"/>
+        <v>292.85714285714494</v>
+      </c>
+      <c r="N70">
+        <v>2038</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="18"/>
+        <v>2530.0489965413371</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="19"/>
+        <v>16.870955399958348</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="19"/>
+        <v>1.0099001039898212</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="19"/>
+        <v>0.12019062269337155</v>
+      </c>
+    </row>
+    <row r="71" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <f t="shared" si="16"/>
+        <v>307.1428571428587</v>
+      </c>
+      <c r="N71">
+        <v>2039</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="18"/>
+        <v>2514.085637801697</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="19"/>
+        <v>15.963358739640171</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="19"/>
+        <v>0.90759666031817687</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="19"/>
+        <v>0.10230344367164435</v>
+      </c>
+    </row>
+    <row r="72" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <f t="shared" si="16"/>
+        <v>321.42857142857247</v>
+      </c>
+      <c r="N72">
+        <v>2040</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="18"/>
+        <v>2498.9421064808448</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="19"/>
+        <v>15.143531320852162</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="19"/>
+        <v>0.8198274187880088</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="19"/>
+        <v>8.7769241530168074E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <f t="shared" si="16"/>
+        <v>335.71428571428623</v>
+      </c>
+      <c r="N73">
+        <v>2041</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="18"/>
+        <v>2484.5425613928396</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="19"/>
+        <v>14.399545088005198</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="19"/>
+        <v>0.74398623284696441</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="19"/>
+        <v>7.5841185941044387E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <f t="shared" si="16"/>
+        <v>350</v>
+      </c>
+      <c r="N74">
+        <v>2042</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="18"/>
+        <v>2470.8210395791307</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="19"/>
+        <v>13.721521813708932</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="19"/>
+        <v>0.6780232742962653</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="19"/>
+        <v>6.5962958550699113E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <f t="shared" si="16"/>
+        <v>364.28571428571377</v>
+      </c>
+      <c r="N75">
+        <v>2043</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="18"/>
+        <v>2457.7198265585657</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="19"/>
+        <v>13.101213020564956</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="19"/>
+        <v>0.6203087931439768</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="19"/>
+        <v>5.7714481152288499E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <f t="shared" si="16"/>
+        <v>378.57142857142753</v>
+      </c>
+      <c r="N76">
+        <v>2044</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="18"/>
+        <v>2445.1881477343036</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="19"/>
+        <v>12.531678824262144</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="19"/>
+        <v>0.56953419630281132</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="19"/>
+        <v>5.0774596841165476E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <f t="shared" si="16"/>
+        <v>392.85714285714494</v>
+      </c>
+      <c r="N77">
+        <v>2045</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="18"/>
+        <v>2433.181108129636</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="19"/>
+        <v>12.007039604667625</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="19"/>
+        <v>0.52463921959451909</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="19"/>
+        <v>4.4894976708292234E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <f t="shared" si="16"/>
+        <v>407.1428571428587</v>
+      </c>
+      <c r="N78">
+        <v>2046</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="18"/>
+        <v>2421.6588261494267</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="19"/>
+        <v>11.5222819802093</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="19"/>
+        <v>0.48475762445832515</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="19"/>
+        <v>3.9881595136193937E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <f t="shared" si="16"/>
+        <v>421.42857142857247</v>
+      </c>
+      <c r="N79">
+        <v>2047</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="18"/>
+        <v>2410.5857204004833</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="19"/>
+        <v>11.073105748943362</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="19"/>
+        <v>0.44917623126593753</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="19"/>
+        <v>3.5581393192387623E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <f t="shared" si="16"/>
+        <v>435.71428571428623</v>
+      </c>
+      <c r="N80">
+        <v>2048</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="18"/>
+        <v>2399.9299183303215</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="19"/>
+        <v>10.655802070161826</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="19"/>
+        <v>0.41730367878153629</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="19"/>
+        <v>3.187255248440124E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <f t="shared" si="16"/>
+        <v>450</v>
+      </c>
+      <c r="N81">
+        <v>2049</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="18"/>
+        <v>2389.6627626215277</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="19"/>
+        <v>10.26715570879378</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="19"/>
+        <v>0.3886463613680462</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="19"/>
+        <v>2.8657317413490091E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <f t="shared" si="16"/>
+        <v>464.28571428571377</v>
+      </c>
+      <c r="N82">
+        <v>2050</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="18"/>
+        <v>2379.7583966350066</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="19"/>
+        <v>9.9043659865210429</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="19"/>
+        <v>0.36278972227273698</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="19"/>
+        <v>2.585663909530922E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7536,10 +9003,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219E9991-B7A0-4D4B-8902-BDBC386C881A}">
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8576,6 +10043,176 @@
         <v>6424.1102456382951</v>
       </c>
     </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37">
+        <v>6.7619999999999996</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37">
+        <f>524/1000</f>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="I37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" t="s">
+        <v>326</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>316</v>
+      </c>
+      <c r="C39">
+        <v>138</v>
+      </c>
+      <c r="G39" t="s">
+        <v>327</v>
+      </c>
+      <c r="H39">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40">
+        <f>C37/C38</f>
+        <v>6.762E-2</v>
+      </c>
+      <c r="D40">
+        <f>C40*1000</f>
+        <v>67.62</v>
+      </c>
+      <c r="E40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>328</v>
+      </c>
+      <c r="H40">
+        <f>H37/H38</f>
+        <v>8.7333333333333332E-2</v>
+      </c>
+      <c r="I40">
+        <f>H40*1000</f>
+        <v>87.333333333333329</v>
+      </c>
+      <c r="J40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>322</v>
+      </c>
+      <c r="C41">
+        <f>C40/C39</f>
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="D41">
+        <f>C41*1000000</f>
+        <v>490</v>
+      </c>
+      <c r="E41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>322</v>
+      </c>
+      <c r="I46">
+        <v>680</v>
+      </c>
+      <c r="J46" t="s">
+        <v>320</v>
+      </c>
+      <c r="K46">
+        <f>I46/1000</f>
+        <v>0.68</v>
+      </c>
+      <c r="L46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f>I49-D40</f>
+        <v>21.460000000000008</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>321</v>
+      </c>
+      <c r="I49">
+        <f>K46*I45</f>
+        <v>89.080000000000013</v>
+      </c>
+      <c r="J49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>323</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>324</v>
+      </c>
+      <c r="I51">
+        <f>I50*I49</f>
+        <v>534.48</v>
+      </c>
+      <c r="J51" t="s">
+        <v>318</v>
+      </c>
+      <c r="K51">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f>524/6</f>
+        <v>87.333333333333329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8583,13 +10220,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73013222-0B9F-46A1-94A8-CA5AB3C6F399}">
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AF117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F14"/>
+      <selection activeCell="AF60" sqref="AF60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -9098,7 +10739,7 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:AF19" si="0">$B$12*B20+B21</f>
+        <f t="shared" ref="B19:AF19" si="0">$B$12*B20+B22</f>
         <v>2836590.8987203999</v>
       </c>
       <c r="C19">
@@ -9227,7 +10868,7 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:L20" si="1">_xlfn.FORECAST.LINEAR(B$17,$B$26:$B$27,$A$26:$A$27)</f>
+        <f t="shared" ref="B20:L20" si="1">_xlfn.FORECAST.LINEAR(B$17,$B$27:$B$28,$A$27:$A$28)</f>
         <v>20000000</v>
       </c>
       <c r="C20">
@@ -9271,7 +10912,7 @@
         <v>13000000</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:V20" si="2">_xlfn.FORECAST.LINEAR(M$17,$B$27:$B$28,$A$27:$A$28)</f>
+        <f t="shared" ref="M20:V20" si="2">_xlfn.FORECAST.LINEAR(M$17,$B$28:$B$29,$A$28:$A$29)</f>
         <v>12660000</v>
       </c>
       <c r="N20">
@@ -9311,7 +10952,7 @@
         <v>9600000</v>
       </c>
       <c r="W20">
-        <f t="shared" ref="W20:AF20" si="3">_xlfn.FORECAST.LINEAR(W$17,$B$28:$B$29,$A$28:$A$29)</f>
+        <f t="shared" ref="W20:AF20" si="3">_xlfn.FORECAST.LINEAR(W$17,$B$29:$B$30,$A$29:$A$30)</f>
         <v>9430000</v>
       </c>
       <c r="X20">
@@ -9353,407 +10994,2584 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21:L21" si="4">_xlfn.FORECAST.LINEAR(B$17,$C$26:$C$27,$A$26:$A$27)</f>
-        <v>500000</v>
+        <f>B20*$B$12</f>
+        <v>2336590.8987203999</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
-        <v>480000</v>
+        <f t="shared" ref="C21:AF21" si="4">C20*$B$12</f>
+        <v>2254810.2172651859</v>
       </c>
       <c r="D21">
         <f t="shared" si="4"/>
-        <v>460000</v>
+        <v>2173029.5358099719</v>
       </c>
       <c r="E21">
         <f t="shared" si="4"/>
-        <v>440000</v>
+        <v>2091248.8543547578</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>420000</v>
+        <v>2009468.1728995438</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
-        <v>400000</v>
+        <v>1927687.49144433</v>
       </c>
       <c r="H21">
         <f t="shared" si="4"/>
-        <v>380000</v>
+        <v>1845906.8099891159</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>360000</v>
+        <v>1764126.1285339019</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>340000</v>
+        <v>1682345.4470786878</v>
       </c>
       <c r="K21">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>1600564.7656234738</v>
       </c>
       <c r="L21">
         <f t="shared" si="4"/>
+        <v>1518784.08416826</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>1479062.038890013</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>1439339.9936117663</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>1399617.9483335195</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>1359895.9030552728</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>1320173.8577770258</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="4"/>
+        <v>1280451.812498779</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>1240729.7672205323</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="4"/>
+        <v>1201007.7219422855</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="4"/>
+        <v>1161285.6766640388</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="4"/>
+        <v>1121563.6313857918</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="4"/>
+        <v>1101702.6087466686</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="4"/>
+        <v>1081841.5861075451</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="4"/>
+        <v>1061980.5634684218</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="4"/>
+        <v>1042119.5408292983</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="4"/>
+        <v>1022258.5181901749</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="4"/>
+        <v>1002397.4955510516</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="4"/>
+        <v>982536.47291192808</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="4"/>
+        <v>962675.45027280471</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="4"/>
+        <v>942814.42763368133</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="4"/>
+        <v>922953.40499455796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:L22" si="5">_xlfn.FORECAST.LINEAR(B$17,$C$27:$C$28,$A$27:$A$28)</f>
+        <v>500000</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="5"/>
+        <v>480000</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>460000</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>440000</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>420000</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>400000</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>380000</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>360000</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>340000</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>320000</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-      <c r="M21">
-        <f t="shared" ref="M21:V21" si="5">_xlfn.FORECAST.LINEAR(M$17,$C$27:$C$28,$A$27:$A$28)</f>
+      <c r="M22">
+        <f t="shared" ref="M22:V22" si="6">_xlfn.FORECAST.LINEAR(M$17,$C$28:$C$29,$A$28:$A$29)</f>
         <v>290000</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="5"/>
+      <c r="N22">
+        <f t="shared" si="6"/>
         <v>280000</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="5"/>
+      <c r="O22">
+        <f t="shared" si="6"/>
         <v>270000</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="5"/>
+      <c r="P22">
+        <f t="shared" si="6"/>
         <v>260000</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="5"/>
+      <c r="Q22">
+        <f t="shared" si="6"/>
         <v>250000</v>
       </c>
-      <c r="R21">
-        <f t="shared" si="5"/>
+      <c r="R22">
+        <f t="shared" si="6"/>
         <v>240000</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="5"/>
+      <c r="S22">
+        <f t="shared" si="6"/>
         <v>230000</v>
       </c>
-      <c r="T21">
-        <f t="shared" si="5"/>
+      <c r="T22">
+        <f t="shared" si="6"/>
         <v>220000</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="5"/>
+      <c r="U22">
+        <f t="shared" si="6"/>
         <v>210000</v>
       </c>
-      <c r="V21">
-        <f t="shared" si="5"/>
+      <c r="V22">
+        <f t="shared" si="6"/>
         <v>200000</v>
       </c>
-      <c r="W21">
-        <f t="shared" ref="W21:AF21" si="6">_xlfn.FORECAST.LINEAR(W$17,$C$28:$C$29,$A$28:$A$29)</f>
+      <c r="W22">
+        <f t="shared" ref="W22:AF22" si="7">_xlfn.FORECAST.LINEAR(W$17,$C$29:$C$30,$A$29:$A$30)</f>
         <v>195000</v>
       </c>
-      <c r="X21">
-        <f t="shared" si="6"/>
+      <c r="X22">
+        <f t="shared" si="7"/>
         <v>190000</v>
       </c>
-      <c r="Y21">
-        <f t="shared" si="6"/>
+      <c r="Y22">
+        <f t="shared" si="7"/>
         <v>185000</v>
       </c>
-      <c r="Z21">
-        <f t="shared" si="6"/>
+      <c r="Z22">
+        <f t="shared" si="7"/>
         <v>180000</v>
       </c>
-      <c r="AA21">
-        <f t="shared" si="6"/>
+      <c r="AA22">
+        <f t="shared" si="7"/>
         <v>175000</v>
       </c>
-      <c r="AB21">
-        <f t="shared" si="6"/>
+      <c r="AB22">
+        <f t="shared" si="7"/>
         <v>170000</v>
       </c>
-      <c r="AC21">
-        <f t="shared" si="6"/>
+      <c r="AC22">
+        <f t="shared" si="7"/>
         <v>165000</v>
       </c>
-      <c r="AD21">
-        <f t="shared" si="6"/>
+      <c r="AD22">
+        <f t="shared" si="7"/>
         <v>160000</v>
       </c>
-      <c r="AE21">
-        <f t="shared" si="6"/>
+      <c r="AE22">
+        <f t="shared" si="7"/>
         <v>155000</v>
       </c>
-      <c r="AF21">
-        <f t="shared" si="6"/>
+      <c r="AF22">
+        <f t="shared" si="7"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2020</v>
-      </c>
-      <c r="B26">
-        <v>20000000</v>
-      </c>
-      <c r="C26">
-        <v>500000</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="B27">
-        <v>13000000</v>
+        <v>20000000</v>
       </c>
       <c r="C27">
-        <v>300000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="B28">
-        <v>9600000</v>
+        <v>13000000</v>
       </c>
       <c r="C28">
-        <v>200000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>2040</v>
+      </c>
+      <c r="B29">
+        <v>9600000</v>
+      </c>
+      <c r="C29">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2050</v>
       </c>
-      <c r="B29">
-        <f>B28-1700000</f>
+      <c r="B30">
+        <f>B29-1700000</f>
         <v>7900000</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>150000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31">
-        <v>2020</v>
-      </c>
-      <c r="C31">
-        <v>2023</v>
-      </c>
-      <c r="D31">
-        <v>2026</v>
-      </c>
-      <c r="E31">
-        <v>2029</v>
-      </c>
-      <c r="F31">
-        <v>2032</v>
-      </c>
-      <c r="G31">
-        <v>2035</v>
-      </c>
-      <c r="H31">
-        <v>2038</v>
-      </c>
-      <c r="I31">
-        <v>2041</v>
-      </c>
-      <c r="J31">
-        <v>2044</v>
-      </c>
-      <c r="K31">
-        <v>2047</v>
-      </c>
-      <c r="L31">
-        <v>2050</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>2020</v>
+      </c>
+      <c r="C32">
+        <v>2023</v>
+      </c>
+      <c r="D32">
+        <v>2026</v>
+      </c>
+      <c r="E32">
+        <v>2029</v>
+      </c>
+      <c r="F32">
+        <v>2032</v>
+      </c>
+      <c r="G32">
+        <v>2035</v>
+      </c>
+      <c r="H32">
+        <v>2038</v>
+      </c>
+      <c r="I32">
+        <v>2041</v>
+      </c>
+      <c r="J32">
+        <v>2044</v>
+      </c>
+      <c r="K32">
+        <v>2047</v>
+      </c>
+      <c r="L32">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>2</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>3</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>5</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>6</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>7</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>8</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>9</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B33">
-        <f t="shared" ref="B33:C35" si="7">INDEX($B19:$AF19,MATCH(B$31,$B$17:$AF$17))</f>
+      <c r="B34">
+        <f>INDEX($B19:$AF19,MATCH(B$32,$B$17:$AF$17))</f>
         <v>2836590.8987203999</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="7"/>
+      <c r="C34">
+        <f>INDEX($B19:$AF19,MATCH(C$32,$B$17:$AF$17))</f>
         <v>2531248.8543547578</v>
       </c>
-      <c r="D33">
-        <f t="shared" ref="D33:L33" si="8">INDEX($B19:$AF19,MATCH(D$31,$B$17:$AF$17))</f>
+      <c r="D34">
+        <f t="shared" ref="D34:L34" si="8">INDEX($B19:$AF19,MATCH(D$32,$B$17:$AF$17))</f>
         <v>2225906.8099891162</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <f t="shared" si="8"/>
         <v>1920564.7656234738</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <f t="shared" si="8"/>
         <v>1719339.9936117663</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <f t="shared" si="8"/>
         <v>1570173.8577770258</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <f t="shared" si="8"/>
         <v>1421007.7219422855</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <f t="shared" si="8"/>
         <v>1296702.6087466686</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <f t="shared" si="8"/>
         <v>1222119.5408292983</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <f t="shared" si="8"/>
         <v>1147536.4729119281</v>
       </c>
-      <c r="L33">
+      <c r="L34">
         <f t="shared" si="8"/>
         <v>1072953.4049945581</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>4</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="7"/>
+      <c r="B35">
+        <f>INDEX($B20:$AF20,MATCH(B$32,$B$17:$AF$17))</f>
         <v>20000000</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="7"/>
+      <c r="C35">
+        <f>INDEX($B20:$AF20,MATCH(C$32,$B$17:$AF$17))</f>
         <v>17900000</v>
       </c>
-      <c r="D34">
-        <f t="shared" ref="D34:L34" si="9">INDEX($B20:$AF20,MATCH(D$31,$B$17:$AF$17))</f>
+      <c r="D35">
+        <f t="shared" ref="D35:L35" si="9">INDEX($B20:$AF20,MATCH(D$32,$B$17:$AF$17))</f>
         <v>15800000</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <f t="shared" si="9"/>
         <v>13700000</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <f t="shared" si="9"/>
         <v>12320000</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <f t="shared" si="9"/>
         <v>11300000</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <f t="shared" si="9"/>
         <v>10280000</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <f t="shared" si="9"/>
         <v>9430000</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <f t="shared" si="9"/>
         <v>8920000</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <f t="shared" si="9"/>
         <v>8410000</v>
       </c>
-      <c r="L34">
+      <c r="L35">
         <f t="shared" si="9"/>
         <v>7900000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="7"/>
+      <c r="B36">
+        <f>INDEX($B22:$AF22,MATCH(B$32,$B$17:$AF$17))</f>
         <v>500000</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="7"/>
+      <c r="C36">
+        <f>INDEX($B22:$AF22,MATCH(C$32,$B$17:$AF$17))</f>
         <v>440000</v>
       </c>
-      <c r="D35">
-        <f t="shared" ref="D35:L35" si="10">INDEX($B21:$AF21,MATCH(D$31,$B$17:$AF$17))</f>
+      <c r="D36">
+        <f t="shared" ref="D36:L36" si="10">INDEX($B22:$AF22,MATCH(D$32,$B$17:$AF$17))</f>
         <v>380000</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <f t="shared" si="10"/>
         <v>320000</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <f t="shared" si="10"/>
         <v>280000</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <f t="shared" si="10"/>
         <v>250000</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <f t="shared" si="10"/>
         <v>220000</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <f t="shared" si="10"/>
         <v>195000</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <f t="shared" si="10"/>
         <v>180000</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <f t="shared" si="10"/>
         <v>165000</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <f t="shared" si="10"/>
         <v>150000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>64</v>
+      </c>
+      <c r="R43" t="s">
+        <v>49</v>
+      </c>
+      <c r="S43" t="s">
+        <v>50</v>
+      </c>
+      <c r="T43" t="s">
+        <v>51</v>
+      </c>
+      <c r="U43" t="s">
+        <v>52</v>
+      </c>
+      <c r="V43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f>V44</f>
+        <v>0.94879655203812185</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:D47" si="11">W44</f>
+        <v>0.86684675387743959</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="11"/>
+        <v>0.84317236774213133</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>66</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>55</v>
+      </c>
+      <c r="R44">
+        <v>35</v>
+      </c>
+      <c r="S44">
+        <f>750/0.18</f>
+        <v>4166.666666666667</v>
+      </c>
+      <c r="T44">
+        <f>37.8/0.18</f>
+        <v>210</v>
+      </c>
+      <c r="U44">
+        <f>R44+S44+T44+($B$8/1000)</f>
+        <v>54911.666666666664</v>
+      </c>
+      <c r="V44">
+        <f>(B$49/1000)/$U44</f>
+        <v>0.94879655203812185</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:X47" si="12">(C$49/1000)/$U44</f>
+        <v>0.86684675387743959</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="12"/>
+        <v>0.84317236774213133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f>V45</f>
+        <v>0.84971051129413688</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="11"/>
+        <v>0.77631900839924972</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="11"/>
+        <v>0.75511701867406023</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>54</v>
+      </c>
+      <c r="R45">
+        <v>35</v>
+      </c>
+      <c r="S45">
+        <v>10180</v>
+      </c>
+      <c r="T45">
+        <v>600</v>
+      </c>
+      <c r="U45">
+        <f>R45+S45+T45+($B$8/1000)</f>
+        <v>61315</v>
+      </c>
+      <c r="V45">
+        <f t="shared" ref="V45:V47" si="13">(B$49/1000)/$U45</f>
+        <v>0.84971051129413688</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="12"/>
+        <v>0.77631900839924972</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="12"/>
+        <v>0.75511701867406023</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f>V46</f>
+        <v>1.0309686355990897</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="11"/>
+        <v>0.94192144058573268</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="11"/>
+        <v>0.91619669535965176</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>68</v>
+      </c>
+      <c r="O46">
+        <v>3</v>
+      </c>
+      <c r="P46" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46">
+        <v>35</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f>R46+S46+T46+($B$8/1000)</f>
+        <v>50535</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="13"/>
+        <v>1.0309686355990897</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="12"/>
+        <v>0.94192144058573268</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="12"/>
+        <v>0.91619669535965176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47">
+        <f>V47</f>
+        <v>0.95243898723378329</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="11"/>
+        <v>0.87017458334602849</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="11"/>
+        <v>0.84640931111178819</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>69</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>55</v>
+      </c>
+      <c r="R47">
+        <v>35</v>
+      </c>
+      <c r="S47">
+        <f>750/0.18</f>
+        <v>4166.666666666667</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f>R47+S47+T47+($B$8/1000)</f>
+        <v>54701.666666666664</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="13"/>
+        <v>0.95243898723378329</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="12"/>
+        <v>0.87017458334602849</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="12"/>
+        <v>0.84640931111178819</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <v>1.9</v>
+      </c>
+      <c r="C48">
+        <v>2.1</v>
+      </c>
+      <c r="D48">
+        <v>2.1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49">
+        <f>52.1*1000000</f>
+        <v>52100000</v>
+      </c>
+      <c r="C49">
+        <f>47.6*1000000</f>
+        <v>47600000</v>
+      </c>
+      <c r="D49">
+        <f>46.3*1000000</f>
+        <v>46300000</v>
+      </c>
+      <c r="E49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" t="s">
+        <v>301</v>
+      </c>
+      <c r="H49" t="s">
+        <v>302</v>
+      </c>
+      <c r="I49" t="s">
+        <v>303</v>
+      </c>
+      <c r="J49" t="s">
+        <v>302</v>
+      </c>
+      <c r="K49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <f>($B$11*(1+$B$11)^$B$10)/((1+$B$11)^$B$10-1)</f>
+        <v>0.11682954493601999</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>2020</v>
+      </c>
+      <c r="C58">
+        <v>2021</v>
+      </c>
+      <c r="D58">
+        <v>2022</v>
+      </c>
+      <c r="E58">
+        <v>2023</v>
+      </c>
+      <c r="F58">
+        <v>2024</v>
+      </c>
+      <c r="G58">
+        <v>2025</v>
+      </c>
+      <c r="H58">
+        <v>2026</v>
+      </c>
+      <c r="I58">
+        <v>2027</v>
+      </c>
+      <c r="J58">
+        <v>2028</v>
+      </c>
+      <c r="K58">
+        <v>2029</v>
+      </c>
+      <c r="L58">
+        <v>2030</v>
+      </c>
+      <c r="M58">
+        <v>2031</v>
+      </c>
+      <c r="N58">
+        <v>2032</v>
+      </c>
+      <c r="O58">
+        <v>2033</v>
+      </c>
+      <c r="P58">
+        <v>2034</v>
+      </c>
+      <c r="Q58">
+        <v>2035</v>
+      </c>
+      <c r="R58">
+        <v>2036</v>
+      </c>
+      <c r="S58">
+        <v>2037</v>
+      </c>
+      <c r="T58">
+        <v>2038</v>
+      </c>
+      <c r="U58">
+        <v>2039</v>
+      </c>
+      <c r="V58">
+        <v>2040</v>
+      </c>
+      <c r="W58">
+        <v>2041</v>
+      </c>
+      <c r="X58">
+        <v>2042</v>
+      </c>
+      <c r="Y58">
+        <v>2043</v>
+      </c>
+      <c r="Z58">
+        <v>2044</v>
+      </c>
+      <c r="AA58">
+        <v>2045</v>
+      </c>
+      <c r="AB58">
+        <v>2046</v>
+      </c>
+      <c r="AC58">
+        <v>2047</v>
+      </c>
+      <c r="AD58">
+        <v>2048</v>
+      </c>
+      <c r="AE58">
+        <v>2049</v>
+      </c>
+      <c r="AF58">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+      <c r="J59">
+        <v>9</v>
+      </c>
+      <c r="K59">
+        <v>10</v>
+      </c>
+      <c r="L59">
+        <v>11</v>
+      </c>
+      <c r="M59">
+        <v>12</v>
+      </c>
+      <c r="N59">
+        <v>13</v>
+      </c>
+      <c r="O59">
+        <v>14</v>
+      </c>
+      <c r="P59">
+        <v>15</v>
+      </c>
+      <c r="Q59">
+        <v>16</v>
+      </c>
+      <c r="R59">
+        <v>17</v>
+      </c>
+      <c r="S59">
+        <v>18</v>
+      </c>
+      <c r="T59">
+        <v>19</v>
+      </c>
+      <c r="U59">
+        <v>20</v>
+      </c>
+      <c r="V59">
+        <v>21</v>
+      </c>
+      <c r="W59">
+        <v>22</v>
+      </c>
+      <c r="X59">
+        <v>23</v>
+      </c>
+      <c r="Y59">
+        <v>24</v>
+      </c>
+      <c r="Z59">
+        <v>25</v>
+      </c>
+      <c r="AA59">
+        <v>26</v>
+      </c>
+      <c r="AB59">
+        <v>27</v>
+      </c>
+      <c r="AC59">
+        <v>28</v>
+      </c>
+      <c r="AD59">
+        <v>29</v>
+      </c>
+      <c r="AE59">
+        <v>30</v>
+      </c>
+      <c r="AF59">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60:AF60" si="14">$B$12*B61+B63</f>
+        <v>11112704.50500956</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="14"/>
+        <v>10576930.302398205</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="14"/>
+        <v>10041156.099786852</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="14"/>
+        <v>9505381.8971754946</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="14"/>
+        <v>8969607.6945641413</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="14"/>
+        <v>8433833.4919527862</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="14"/>
+        <v>7898059.289341432</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="14"/>
+        <v>7362285.0867300769</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="14"/>
+        <v>6826510.8841187228</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="14"/>
+        <v>6290736.6815073686</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="14"/>
+        <v>5754962.4788960135</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="14"/>
+        <v>5647340.3201939985</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="14"/>
+        <v>5539718.1614919836</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="14"/>
+        <v>5432096.0027899686</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="14"/>
+        <v>5324473.8440879537</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="14"/>
+        <v>5216851.6853859387</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="14"/>
+        <v>5109229.5266839238</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="14"/>
+        <v>5001607.3679819088</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="14"/>
+        <v>4893985.2092798939</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="14"/>
+        <v>4786363.050577879</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="14"/>
+        <v>4678740.8918758631</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="14"/>
+        <v>4595224.869464891</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="14"/>
+        <v>4511708.847053919</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="14"/>
+        <v>4428192.8246429469</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="14"/>
+        <v>4344676.8022319749</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="14"/>
+        <v>4261160.7798210029</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="14"/>
+        <v>4177644.7574100303</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="14"/>
+        <v>4094128.7349990583</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="14"/>
+        <v>4010612.7125880863</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="14"/>
+        <v>3927096.6901771137</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="14"/>
+        <v>3843580.6677661417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <f>_xlfn.FORECAST.LINEAR(B58,$B$68:$B$69,$A$68:$A$69)</f>
+        <v>78000000</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:L61" si="15">_xlfn.FORECAST.LINEAR(C58,$B$68:$B$69,$A$68:$A$69)</f>
+        <v>74270000</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="15"/>
+        <v>70540000</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="15"/>
+        <v>66810000</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="15"/>
+        <v>63080000</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="15"/>
+        <v>59350000</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="15"/>
+        <v>55620000</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="15"/>
+        <v>51890000</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="15"/>
+        <v>48160000</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="15"/>
+        <v>44430000</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="15"/>
+        <v>40700000</v>
+      </c>
+      <c r="M61">
+        <f>_xlfn.FORECAST.LINEAR(M58,$B$69:$B$70,$A$69:$A$70)</f>
+        <v>39950000</v>
+      </c>
+      <c r="N61">
+        <f t="shared" ref="N61:U61" si="16">_xlfn.FORECAST.LINEAR(N58,$B$69:$B$70,$A$69:$A$70)</f>
+        <v>39200000</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="16"/>
+        <v>38450000</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="16"/>
+        <v>37700000</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="16"/>
+        <v>36950000</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="16"/>
+        <v>36200000</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="16"/>
+        <v>35450000</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="16"/>
+        <v>34700000</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="16"/>
+        <v>33950000</v>
+      </c>
+      <c r="V61">
+        <f>_xlfn.FORECAST.LINEAR(V58,$B$70:$B$71,$A$70:$A$71)</f>
+        <v>33200000</v>
+      </c>
+      <c r="W61">
+        <f t="shared" ref="W61:AF61" si="17">_xlfn.FORECAST.LINEAR(W58,$B$70:$B$71,$A$70:$A$71)</f>
+        <v>32590000</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="17"/>
+        <v>31980000</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="17"/>
+        <v>31370000</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="17"/>
+        <v>30760000</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="17"/>
+        <v>30150000</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="17"/>
+        <v>29540000</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="17"/>
+        <v>28930000</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="17"/>
+        <v>28320000</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="17"/>
+        <v>27710000</v>
+      </c>
+      <c r="AF61">
+        <f t="shared" si="17"/>
+        <v>27100000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62">
+        <f>B61*$B$12</f>
+        <v>9112704.5050095599</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:AF62" si="18">C61*$B$12</f>
+        <v>8676930.3023982048</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="18"/>
+        <v>8241156.0997868506</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="18"/>
+        <v>7805381.8971754955</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="18"/>
+        <v>7369607.6945641413</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="18"/>
+        <v>6933833.4919527862</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="18"/>
+        <v>6498059.289341432</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="18"/>
+        <v>6062285.0867300769</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="18"/>
+        <v>5626510.8841187228</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="18"/>
+        <v>5190736.6815073686</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="18"/>
+        <v>4754962.4788960135</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="18"/>
+        <v>4667340.3201939985</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="18"/>
+        <v>4579718.1614919836</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="18"/>
+        <v>4492096.0027899686</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="18"/>
+        <v>4404473.8440879537</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="18"/>
+        <v>4316851.6853859387</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="18"/>
+        <v>4229229.5266839238</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="18"/>
+        <v>4141607.3679819088</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="18"/>
+        <v>4053985.2092798939</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="18"/>
+        <v>3966363.0505778785</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="18"/>
+        <v>3878740.8918758635</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="18"/>
+        <v>3807474.8694648915</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="18"/>
+        <v>3736208.8470539195</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="18"/>
+        <v>3664942.8246429469</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="18"/>
+        <v>3593676.8022319749</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="18"/>
+        <v>3522410.7798210029</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="18"/>
+        <v>3451144.7574100303</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="18"/>
+        <v>3379878.7349990583</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="18"/>
+        <v>3308612.7125880863</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="18"/>
+        <v>3237346.6901771137</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="18"/>
+        <v>3166080.6677661417</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <f>_xlfn.FORECAST.LINEAR(B58,$C$68:$C$69,$A$68:$A$69)</f>
+        <v>2000000</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:K63" si="19">_xlfn.FORECAST.LINEAR(C58,$C$68:$C$69,$A$68:$A$69)</f>
+        <v>1900000</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="19"/>
+        <v>1800000</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="19"/>
+        <v>1700000</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="19"/>
+        <v>1600000</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="19"/>
+        <v>1500000</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="19"/>
+        <v>1400000</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="19"/>
+        <v>1300000</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="19"/>
+        <v>1200000</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="19"/>
+        <v>1100000</v>
+      </c>
+      <c r="L63">
+        <f>_xlfn.FORECAST.LINEAR(L58,$C$69:$C$70,$A$69:$A$70)</f>
+        <v>1000000</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ref="M63:U63" si="20">_xlfn.FORECAST.LINEAR(M58,$C$69:$C$70,$A$69:$A$70)</f>
+        <v>980000</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="20"/>
+        <v>960000</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="20"/>
+        <v>940000</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="20"/>
+        <v>920000</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="20"/>
+        <v>900000</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="20"/>
+        <v>880000</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="20"/>
+        <v>860000</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="20"/>
+        <v>840000</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="20"/>
+        <v>820000</v>
+      </c>
+      <c r="V63">
+        <f>_xlfn.FORECAST.LINEAR(V58,$C$70:$C$71,$A$70:$A$71)</f>
+        <v>800000</v>
+      </c>
+      <c r="W63">
+        <f t="shared" ref="W63:AF63" si="21">_xlfn.FORECAST.LINEAR(W58,$C$70:$C$71,$A$70:$A$71)</f>
+        <v>787750</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="21"/>
+        <v>775500</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="21"/>
+        <v>763250</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="21"/>
+        <v>751000</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="21"/>
+        <v>738750</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="21"/>
+        <v>726500</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="21"/>
+        <v>714250</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="21"/>
+        <v>702000</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="21"/>
+        <v>689750</v>
+      </c>
+      <c r="AF63">
+        <f t="shared" si="21"/>
+        <v>677500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2020</v>
+      </c>
+      <c r="B68">
+        <v>78000000</v>
+      </c>
+      <c r="C68">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2030</v>
+      </c>
+      <c r="B69">
+        <v>40700000</v>
+      </c>
+      <c r="C69">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2040</v>
+      </c>
+      <c r="B70">
+        <v>33200000</v>
+      </c>
+      <c r="C70">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2050</v>
+      </c>
+      <c r="B71">
+        <v>27100000</v>
+      </c>
+      <c r="C71">
+        <f>0.025*B71</f>
+        <v>677500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73">
+        <v>2020</v>
+      </c>
+      <c r="C73">
+        <v>2023</v>
+      </c>
+      <c r="D73">
+        <v>2026</v>
+      </c>
+      <c r="E73">
+        <v>2029</v>
+      </c>
+      <c r="F73">
+        <v>2032</v>
+      </c>
+      <c r="G73">
+        <v>2035</v>
+      </c>
+      <c r="H73">
+        <v>2038</v>
+      </c>
+      <c r="I73">
+        <v>2041</v>
+      </c>
+      <c r="J73">
+        <v>2044</v>
+      </c>
+      <c r="K73">
+        <v>2047</v>
+      </c>
+      <c r="L73">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>7</v>
+      </c>
+      <c r="J74">
+        <v>8</v>
+      </c>
+      <c r="K74">
+        <v>9</v>
+      </c>
+      <c r="L74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75">
+        <f>INDEX($B60:$AF60,MATCH(B$32,$B$17:$AF$17))</f>
+        <v>11112704.50500956</v>
+      </c>
+      <c r="C75">
+        <f>INDEX($B60:$AF60,MATCH(C$32,$B$17:$AF$17))</f>
+        <v>9505381.8971754946</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:L75" si="22">INDEX($B60:$AF60,MATCH(D$32,$B$17:$AF$17))</f>
+        <v>7898059.289341432</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="22"/>
+        <v>6290736.6815073686</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="22"/>
+        <v>5539718.1614919836</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="22"/>
+        <v>5216851.6853859387</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="22"/>
+        <v>4893985.2092798939</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="22"/>
+        <v>4595224.869464891</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="22"/>
+        <v>4344676.8022319749</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="22"/>
+        <v>4094128.7349990583</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="22"/>
+        <v>3843580.6677661417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <f>INDEX($B61:$AF61,MATCH(B$32,$B$17:$AF$17))</f>
+        <v>78000000</v>
+      </c>
+      <c r="C76">
+        <f>INDEX($B61:$AF61,MATCH(C$32,$B$17:$AF$17))</f>
+        <v>66810000</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ref="D76:L76" si="23">INDEX($B61:$AF61,MATCH(D$32,$B$17:$AF$17))</f>
+        <v>55620000</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="23"/>
+        <v>44430000</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="23"/>
+        <v>39200000</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="23"/>
+        <v>36950000</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="23"/>
+        <v>34700000</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="23"/>
+        <v>32590000</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="23"/>
+        <v>30760000</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="23"/>
+        <v>28930000</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="23"/>
+        <v>27100000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <f>INDEX($B63:$AF63,MATCH(B$32,$B$17:$AF$17))</f>
+        <v>2000000</v>
+      </c>
+      <c r="C77">
+        <f>INDEX($B63:$AF63,MATCH(C$32,$B$17:$AF$17))</f>
+        <v>1700000</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ref="D77:L77" si="24">INDEX($B63:$AF63,MATCH(D$32,$B$17:$AF$17))</f>
+        <v>1400000</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="24"/>
+        <v>1100000</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="24"/>
+        <v>960000</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="24"/>
+        <v>900000</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="24"/>
+        <v>840000</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="24"/>
+        <v>787750</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="24"/>
+        <v>751000</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="24"/>
+        <v>714250</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="24"/>
+        <v>677500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" t="s">
+        <v>35</v>
+      </c>
+      <c r="K82" t="s">
+        <v>4</v>
+      </c>
+      <c r="L82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2020</v>
+      </c>
+      <c r="B83">
+        <v>78000000</v>
+      </c>
+      <c r="C83">
+        <v>2000000</v>
+      </c>
+      <c r="E83" t="s">
+        <v>305</v>
+      </c>
+      <c r="J83">
+        <v>2020</v>
+      </c>
+      <c r="K83">
+        <v>20000000</v>
+      </c>
+      <c r="L83">
+        <v>500000</v>
+      </c>
+      <c r="N83" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="O83">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2030</v>
+      </c>
+      <c r="B84">
+        <v>40700000</v>
+      </c>
+      <c r="C84">
+        <v>1000000</v>
+      </c>
+      <c r="J84">
+        <v>2030</v>
+      </c>
+      <c r="K84">
+        <v>13000000</v>
+      </c>
+      <c r="L84">
+        <v>300000</v>
+      </c>
+      <c r="N84" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="O84">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2040</v>
+      </c>
+      <c r="B85">
+        <v>33200000</v>
+      </c>
+      <c r="C85">
+        <v>800000</v>
+      </c>
+      <c r="E85">
+        <v>2020</v>
+      </c>
+      <c r="F85">
+        <v>78000000</v>
+      </c>
+      <c r="J85">
+        <v>2040</v>
+      </c>
+      <c r="K85">
+        <v>9600000</v>
+      </c>
+      <c r="L85">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>2021</v>
+      </c>
+      <c r="F86">
+        <f>F85-F85*0.02</f>
+        <v>76440000</v>
+      </c>
+      <c r="J86">
+        <v>2050</v>
+      </c>
+      <c r="K86">
+        <f>K85-1700000</f>
+        <v>7900000</v>
+      </c>
+      <c r="L86">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>2022</v>
+      </c>
+      <c r="F87">
+        <f>F86-F86*0.02</f>
+        <v>74911200</v>
+      </c>
+      <c r="N87">
+        <v>2020</v>
+      </c>
+      <c r="O87">
+        <v>20000000</v>
+      </c>
+      <c r="Q87">
+        <f>1000*20*1000</f>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>2023</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ref="F88:F105" si="25">F87-F87*0.02</f>
+        <v>73412976</v>
+      </c>
+      <c r="N88">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>2024</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="25"/>
+        <v>71944716.480000004</v>
+      </c>
+      <c r="N89">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>2025</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="25"/>
+        <v>70505822.150399998</v>
+      </c>
+      <c r="G90">
+        <v>45000000</v>
+      </c>
+      <c r="N90">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>2026</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="25"/>
+        <v>69095705.707391992</v>
+      </c>
+      <c r="G91">
+        <f>G90-0.02*G90</f>
+        <v>44100000</v>
+      </c>
+      <c r="N91">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>2027</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="25"/>
+        <v>67713791.59324415</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ref="G92:G115" si="26">G91-0.02*G91</f>
+        <v>43218000</v>
+      </c>
+      <c r="N92">
+        <v>2025</v>
+      </c>
+      <c r="P92">
+        <f>800*20*1000</f>
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>2028</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="25"/>
+        <v>66359515.761379264</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="26"/>
+        <v>42353640</v>
+      </c>
+      <c r="N93">
+        <v>2026</v>
+      </c>
+      <c r="P93">
+        <f>P92-0.04*P92</f>
+        <v>15360000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>2029</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="25"/>
+        <v>65032325.446151681</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="26"/>
+        <v>41506567.200000003</v>
+      </c>
+      <c r="N94">
+        <v>2027</v>
+      </c>
+      <c r="P94">
+        <f t="shared" ref="P94:P97" si="27">P93-0.04*P93</f>
+        <v>14745600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>2030</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="25"/>
+        <v>63731678.93722865</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="26"/>
+        <v>40676435.856000006</v>
+      </c>
+      <c r="N95">
+        <v>2028</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="27"/>
+        <v>14155776</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>2031</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="25"/>
+        <v>62457045.358484074</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="26"/>
+        <v>39862907.138880007</v>
+      </c>
+      <c r="N96">
+        <v>2029</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="27"/>
+        <v>13589544.960000001</v>
+      </c>
+    </row>
+    <row r="97" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>2032</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="25"/>
+        <v>61207904.45131439</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="26"/>
+        <v>39065648.996102408</v>
+      </c>
+      <c r="N97">
+        <v>2030</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="27"/>
+        <v>13045963.161600001</v>
+      </c>
+    </row>
+    <row r="98" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>2033</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="25"/>
+        <v>59983746.362288103</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="26"/>
+        <v>38284336.016180359</v>
+      </c>
+      <c r="N98">
+        <v>2031</v>
+      </c>
+      <c r="P98">
+        <f>P97-0.03*P97</f>
+        <v>12654584.266752001</v>
+      </c>
+    </row>
+    <row r="99" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>2034</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="25"/>
+        <v>58784071.435042344</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="26"/>
+        <v>37518649.295856752</v>
+      </c>
+      <c r="N99">
+        <v>2032</v>
+      </c>
+      <c r="P99">
+        <f t="shared" ref="P99:P117" si="28">P98-0.03*P98</f>
+        <v>12274946.738749441</v>
+      </c>
+    </row>
+    <row r="100" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>2035</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="25"/>
+        <v>57608390.006341495</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="26"/>
+        <v>36768276.309939615</v>
+      </c>
+      <c r="N100">
+        <v>2033</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="28"/>
+        <v>11906698.336586958</v>
+      </c>
+    </row>
+    <row r="101" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>2036</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="25"/>
+        <v>56456222.206214666</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="26"/>
+        <v>36032910.783740826</v>
+      </c>
+      <c r="N101">
+        <v>2034</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="28"/>
+        <v>11549497.386489348</v>
+      </c>
+    </row>
+    <row r="102" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>2037</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="25"/>
+        <v>55327097.76209037</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="26"/>
+        <v>35312252.568066008</v>
+      </c>
+      <c r="N102">
+        <v>2035</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="28"/>
+        <v>11203012.464894667</v>
+      </c>
+    </row>
+    <row r="103" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>2038</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="25"/>
+        <v>54220555.806848563</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="26"/>
+        <v>34606007.516704686</v>
+      </c>
+      <c r="N103">
+        <v>2036</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="28"/>
+        <v>10866922.090947827</v>
+      </c>
+    </row>
+    <row r="104" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>2039</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="25"/>
+        <v>53136144.690711595</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="26"/>
+        <v>33913887.366370589</v>
+      </c>
+      <c r="N104">
+        <v>2037</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="28"/>
+        <v>10540914.428219393</v>
+      </c>
+    </row>
+    <row r="105" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>2040</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="25"/>
+        <v>52073421.796897367</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="26"/>
+        <v>33235609.619043175</v>
+      </c>
+      <c r="N105">
+        <v>2038</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="28"/>
+        <v>10224686.995372811</v>
+      </c>
+    </row>
+    <row r="106" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>2041</v>
+      </c>
+      <c r="G106">
+        <f>G105-0.02*G105</f>
+        <v>32570897.426662311</v>
+      </c>
+      <c r="N106">
+        <v>2039</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="28"/>
+        <v>9917946.3855116274</v>
+      </c>
+    </row>
+    <row r="107" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>2042</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="26"/>
+        <v>31919479.478129067</v>
+      </c>
+      <c r="N107">
+        <v>2040</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="28"/>
+        <v>9620407.9939462785</v>
+      </c>
+    </row>
+    <row r="108" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>2043</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="26"/>
+        <v>31281089.888566487</v>
+      </c>
+      <c r="N108">
+        <v>2041</v>
+      </c>
+      <c r="P108">
+        <f>P107-0.03*P107</f>
+        <v>9331795.7541278899</v>
+      </c>
+    </row>
+    <row r="109" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>2044</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="26"/>
+        <v>30655468.090795156</v>
+      </c>
+      <c r="N109">
+        <v>2042</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="28"/>
+        <v>9051841.8815040532</v>
+      </c>
+    </row>
+    <row r="110" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>2045</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="26"/>
+        <v>30042358.728979252</v>
+      </c>
+      <c r="N110">
+        <v>2043</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="28"/>
+        <v>8780286.6250589322</v>
+      </c>
+    </row>
+    <row r="111" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>2046</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="26"/>
+        <v>29441511.554399665</v>
+      </c>
+      <c r="N111">
+        <v>2044</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="28"/>
+        <v>8516878.0263071638</v>
+      </c>
+    </row>
+    <row r="112" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>2047</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="26"/>
+        <v>28852681.323311672</v>
+      </c>
+      <c r="N112">
+        <v>2045</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="28"/>
+        <v>8261371.6855179491</v>
+      </c>
+    </row>
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>2048</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="26"/>
+        <v>28275627.696845438</v>
+      </c>
+      <c r="N113">
+        <v>2046</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="28"/>
+        <v>8013530.5349524105</v>
+      </c>
+    </row>
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>2049</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="26"/>
+        <v>27710115.142908528</v>
+      </c>
+      <c r="N114">
+        <v>2047</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="28"/>
+        <v>7773124.6189038381</v>
+      </c>
+    </row>
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>2050</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="26"/>
+        <v>27155912.840050358</v>
+      </c>
+      <c r="N115">
+        <v>2048</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="28"/>
+        <v>7539930.8803367233</v>
+      </c>
+    </row>
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N116">
+        <v>2049</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="28"/>
+        <v>7313732.9539266219</v>
+      </c>
+    </row>
+    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="N117">
+        <v>2050</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="28"/>
+        <v>7094320.9653088236</v>
       </c>
     </row>
   </sheetData>
@@ -9766,7 +13584,7 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="C14" sqref="C14:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10730,8 +14548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A6114F-8D0E-4B44-88E7-0468FA8129CB}">
   <dimension ref="A1:AQ54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12179,6 +15997,133 @@
       <c r="E19" t="s">
         <v>21</v>
       </c>
+      <c r="L19" t="s">
+        <v>298</v>
+      </c>
+      <c r="M19">
+        <f>M17*$B$3</f>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:AQ19" si="6">N17*$B$3</f>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="6"/>
+        <v>1122862.0776777</v>
+      </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -12193,6 +16138,16 @@
       <c r="E20" t="s">
         <v>130</v>
       </c>
+      <c r="M20">
+        <f>SUM(M19:AQ19)</f>
+        <v>34808724.40800871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f>SUM(M17:AQ17)</f>
+        <v>371575342.4657535</v>
+      </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -12541,123 +16496,123 @@
         <v>156.66666666666674</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:AF34" si="6">$B$29</f>
+        <f t="shared" ref="C34:AF34" si="7">$B$29</f>
         <v>156.66666666666674</v>
       </c>
       <c r="D34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="E34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="F34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="I34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="J34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="K34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="L34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="M34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="N34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="O34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="P34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="R34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="S34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="T34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="U34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="V34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="W34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="X34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>156.66666666666674</v>
       </c>
     </row>
@@ -12670,123 +16625,123 @@
         <v>1.044444444444444E-2</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:AF35" si="7">$B$28</f>
+        <f t="shared" ref="C35:AF35" si="8">$B$28</f>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="G35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="I35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="J35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="K35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="L35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="M35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="N35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="O35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="P35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="R35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="S35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="T35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="U35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="V35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="W35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="X35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.044444444444444E-2</v>
       </c>
     </row>
@@ -12871,47 +16826,47 @@
         <v>146</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40:L40" si="8">INDEX($B34:$AF34,MATCH(B$38,$B$32:$AF$32))</f>
+        <f t="shared" ref="B40:L40" si="9">INDEX($B34:$AF34,MATCH(B$38,$B$32:$AF$32))</f>
         <v>156.66666666666674</v>
       </c>
       <c r="C40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.66666666666674</v>
       </c>
       <c r="D40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.66666666666674</v>
       </c>
       <c r="E40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.66666666666674</v>
       </c>
       <c r="F40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.66666666666674</v>
       </c>
       <c r="G40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.66666666666674</v>
       </c>
       <c r="H40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.66666666666674</v>
       </c>
       <c r="I40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.66666666666674</v>
       </c>
       <c r="J40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.66666666666674</v>
       </c>
       <c r="K40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.66666666666674</v>
       </c>
       <c r="L40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.66666666666674</v>
       </c>
     </row>
@@ -12920,47 +16875,47 @@
         <v>147</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:L41" si="9">INDEX($B35:$AF35,MATCH(B$38,$B$32:$AF$32))</f>
+        <f t="shared" ref="B41:L41" si="10">INDEX($B35:$AF35,MATCH(B$38,$B$32:$AF$32))</f>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="C41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="G41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="H41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="I41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="J41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="K41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="L41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.044444444444444E-2</v>
       </c>
     </row>
@@ -13049,43 +17004,43 @@
         <v>7373999.7322123339</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:L46" si="10">INDEX($M8:$AQ8,MATCH(C$44,$M$6:$AQ$6))</f>
+        <f t="shared" ref="C46:L46" si="11">INDEX($M8:$AQ8,MATCH(C$44,$M$6:$AQ$6))</f>
         <v>7373999.7322123339</v>
       </c>
       <c r="D46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7373999.7322123339</v>
       </c>
       <c r="E46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7373999.7322123339</v>
       </c>
       <c r="F46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7373999.7322123339</v>
       </c>
       <c r="G46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7373999.7322123339</v>
       </c>
       <c r="H46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7373999.7322123339</v>
       </c>
       <c r="I46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7373999.7322123339</v>
       </c>
       <c r="J46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7373999.7322123339</v>
       </c>
       <c r="K46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7373999.7322123339</v>
       </c>
       <c r="L46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7373999.7322123339</v>
       </c>
     </row>
@@ -13094,47 +17049,47 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:L47" si="11">INDEX($M9:$AQ9,MATCH(B$44,$M$6:$AQ$6))</f>
+        <f t="shared" ref="B47:L47" si="12">INDEX($M9:$AQ9,MATCH(B$44,$M$6:$AQ$6))</f>
         <v>66666666.666666649</v>
       </c>
       <c r="C47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66666666.666666649</v>
       </c>
       <c r="D47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66666666.666666649</v>
       </c>
       <c r="E47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66666666.666666649</v>
       </c>
       <c r="F47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66666666.666666649</v>
       </c>
       <c r="G47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66666666.666666649</v>
       </c>
       <c r="H47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66666666.666666649</v>
       </c>
       <c r="I47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66666666.666666649</v>
       </c>
       <c r="J47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66666666.666666649</v>
       </c>
       <c r="K47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66666666.666666649</v>
       </c>
       <c r="L47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66666666.666666649</v>
       </c>
     </row>
@@ -13143,47 +17098,47 @@
         <v>9</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:L48" si="12">INDEX($M10:$AQ10,MATCH(B$44,$M$6:$AQ$6))</f>
+        <f t="shared" ref="B48:L48" si="13">INDEX($M10:$AQ10,MATCH(B$44,$M$6:$AQ$6))</f>
         <v>1128747.7954144618</v>
       </c>
       <c r="C48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1128747.7954144618</v>
       </c>
       <c r="D48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1128747.7954144618</v>
       </c>
       <c r="E48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1128747.7954144618</v>
       </c>
       <c r="F48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1128747.7954144618</v>
       </c>
       <c r="G48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1128747.7954144618</v>
       </c>
       <c r="H48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1128747.7954144618</v>
       </c>
       <c r="I48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1128747.7954144618</v>
       </c>
       <c r="J48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1128747.7954144618</v>
       </c>
       <c r="K48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1128747.7954144618</v>
       </c>
       <c r="L48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1128747.7954144618</v>
       </c>
     </row>
@@ -13272,43 +17227,43 @@
         <v>1325804.7463737933</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:L52" si="13">INDEX($M16:$AQ16,MATCH(C$50,$M$14:$AQ$14))</f>
+        <f t="shared" ref="C52:L52" si="14">INDEX($M16:$AQ16,MATCH(C$50,$M$14:$AQ$14))</f>
         <v>1325804.7463737933</v>
       </c>
       <c r="D52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1325804.7463737933</v>
       </c>
       <c r="E52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1325804.7463737933</v>
       </c>
       <c r="F52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1325804.7463737933</v>
       </c>
       <c r="G52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1325804.7463737933</v>
       </c>
       <c r="H52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1325804.7463737933</v>
       </c>
       <c r="I52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1325804.7463737933</v>
       </c>
       <c r="J52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1325804.7463737933</v>
       </c>
       <c r="K52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1325804.7463737933</v>
       </c>
       <c r="L52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1325804.7463737933</v>
       </c>
     </row>
@@ -13317,47 +17272,47 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53:L53" si="14">INDEX($M17:$AQ17,MATCH(B$50,$M$14:$AQ$14))</f>
+        <f t="shared" ref="B53:L53" si="15">INDEX($M17:$AQ17,MATCH(B$50,$M$14:$AQ$14))</f>
         <v>11986301.369863013</v>
       </c>
       <c r="C53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11986301.369863013</v>
       </c>
       <c r="D53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11986301.369863013</v>
       </c>
       <c r="E53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11986301.369863013</v>
       </c>
       <c r="F53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11986301.369863013</v>
       </c>
       <c r="G53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11986301.369863013</v>
       </c>
       <c r="H53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11986301.369863013</v>
       </c>
       <c r="I53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11986301.369863013</v>
       </c>
       <c r="J53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11986301.369863013</v>
       </c>
       <c r="K53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11986301.369863013</v>
       </c>
       <c r="L53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11986301.369863013</v>
       </c>
     </row>
@@ -13366,47 +17321,47 @@
         <v>9</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54:L54" si="15">INDEX($M18:$AQ18,MATCH(B$50,$M$14:$AQ$14))</f>
+        <f t="shared" ref="B54:L54" si="16">INDEX($M18:$AQ18,MATCH(B$50,$M$14:$AQ$14))</f>
         <v>202942.66869609334</v>
       </c>
       <c r="C54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>202942.66869609334</v>
       </c>
       <c r="D54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>202942.66869609334</v>
       </c>
       <c r="E54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>202942.66869609334</v>
       </c>
       <c r="F54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>202942.66869609334</v>
       </c>
       <c r="G54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>202942.66869609334</v>
       </c>
       <c r="H54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>202942.66869609334</v>
       </c>
       <c r="I54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>202942.66869609334</v>
       </c>
       <c r="J54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>202942.66869609334</v>
       </c>
       <c r="K54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>202942.66869609334</v>
       </c>
       <c r="L54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>202942.66869609334</v>
       </c>
     </row>
@@ -16181,8 +20136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D986E9-831C-4CFA-BA20-93A75977E223}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238E3C53-45D1-4C46-B129-CB3F8C7EFCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD985CB-5B17-47BA-8F70-9F3D88BE8BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15765" yWindow="0" windowWidth="13140" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24075" yWindow="2850" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="For Report" sheetId="11" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="330">
   <si>
     <t>Depth</t>
   </si>
@@ -968,9 +968,6 @@
     <t>2% annual cost decline</t>
   </si>
   <si>
-    <t>New Numbers</t>
-  </si>
-  <si>
     <t>Other costs</t>
   </si>
   <si>
@@ -1035,6 +1032,12 @@
   </si>
   <si>
     <t>Cap per unit</t>
+  </si>
+  <si>
+    <t>New Numbers Fixed wind</t>
+  </si>
+  <si>
+    <t>Capex</t>
   </si>
 </sst>
 </file>
@@ -2653,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35887E1-BF77-499A-ABB6-DF69F4785B7F}">
-  <dimension ref="A1:AF46"/>
+  <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5308,6 +5311,1176 @@
       </c>
       <c r="E46">
         <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>225</v>
+      </c>
+      <c r="K52" t="s">
+        <v>121</v>
+      </c>
+      <c r="L52" t="s">
+        <v>225</v>
+      </c>
+      <c r="P52" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" t="s">
+        <v>239</v>
+      </c>
+      <c r="F53" t="s">
+        <v>240</v>
+      </c>
+      <c r="H53" t="s">
+        <v>238</v>
+      </c>
+      <c r="P53" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>239</v>
+      </c>
+      <c r="R53" t="s">
+        <v>240</v>
+      </c>
+      <c r="S53" t="s">
+        <v>238</v>
+      </c>
+      <c r="T53" t="s">
+        <v>238</v>
+      </c>
+      <c r="U53" t="s">
+        <v>239</v>
+      </c>
+      <c r="V53" t="s">
+        <v>240</v>
+      </c>
+      <c r="W53" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" t="s">
+        <v>93</v>
+      </c>
+      <c r="K54" t="s">
+        <v>241</v>
+      </c>
+      <c r="L54" t="s">
+        <v>242</v>
+      </c>
+      <c r="M54" t="s">
+        <v>243</v>
+      </c>
+      <c r="N54" t="s">
+        <v>244</v>
+      </c>
+      <c r="P54" t="s">
+        <v>51</v>
+      </c>
+      <c r="T54" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" t="s">
+        <v>216</v>
+      </c>
+      <c r="G55" t="s">
+        <v>217</v>
+      </c>
+      <c r="H55" t="s">
+        <v>218</v>
+      </c>
+      <c r="I55" t="s">
+        <v>236</v>
+      </c>
+      <c r="K55" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" t="s">
+        <v>41</v>
+      </c>
+      <c r="N55" t="s">
+        <v>91</v>
+      </c>
+      <c r="P55" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>221</v>
+      </c>
+      <c r="R55" t="s">
+        <v>222</v>
+      </c>
+      <c r="S55" t="s">
+        <v>223</v>
+      </c>
+      <c r="T55" t="s">
+        <v>227</v>
+      </c>
+      <c r="U55" t="s">
+        <v>228</v>
+      </c>
+      <c r="V55" t="s">
+        <v>229</v>
+      </c>
+      <c r="W55" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="D56" s="5">
+        <v>7245166.7665662523</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1449033.3533132505</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5">
+        <v>3160790</v>
+      </c>
+      <c r="L56" s="5">
+        <v>71905.121337088771</v>
+      </c>
+      <c r="M56" s="5">
+        <v>2836590.8987203999</v>
+      </c>
+      <c r="N56" s="5">
+        <v>108919.67999999999</v>
+      </c>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5">
+        <v>82.773022106121246</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>781.6311731151402</v>
+      </c>
+      <c r="R56" s="5">
+        <v>0</v>
+      </c>
+      <c r="S56" s="5">
+        <v>0</v>
+      </c>
+      <c r="T56" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="U56" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="V56" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="W56" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5">
+        <v>156.66666666666674</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>1.044444444444444E-2</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>780.2</v>
+      </c>
+      <c r="AB56" s="5">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="AC56" s="5">
+        <v>109372.1646000301</v>
+      </c>
+      <c r="AD56" s="5">
+        <v>24625.762656720326</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2023</v>
+      </c>
+      <c r="B57" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="D57" s="5">
+        <v>7027811.7635692656</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1405562.3527138531</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="I57" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5">
+        <v>2731420</v>
+      </c>
+      <c r="L57" s="5">
+        <v>63051.174796772466</v>
+      </c>
+      <c r="M57" s="5">
+        <v>2531248.8543547578</v>
+      </c>
+      <c r="N57" s="5">
+        <v>108919.67999999999</v>
+      </c>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5">
+        <v>80.289831442937711</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>758.18223792168521</v>
+      </c>
+      <c r="R57" s="5">
+        <v>0</v>
+      </c>
+      <c r="S57" s="5">
+        <v>0</v>
+      </c>
+      <c r="T57" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="U57" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="V57" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="W57" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5">
+        <v>156.66666666666674</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>1.044444444444444E-2</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>780.2</v>
+      </c>
+      <c r="AB57" s="5">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="AC57" s="5">
+        <v>109372.1646000301</v>
+      </c>
+      <c r="AD57" s="5">
+        <v>24625.762656720326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2026</v>
+      </c>
+      <c r="B58" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="D58" s="5">
+        <v>6810456.7605722807</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1362091.352114456</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="I58" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5">
+        <v>2552150</v>
+      </c>
+      <c r="L58" s="5">
+        <v>57562.885861959716</v>
+      </c>
+      <c r="M58" s="5">
+        <v>2225906.8099891162</v>
+      </c>
+      <c r="N58" s="5">
+        <v>108919.67999999999</v>
+      </c>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5">
+        <v>77.806640779753963</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>734.73330272823193</v>
+      </c>
+      <c r="R58" s="5">
+        <v>0</v>
+      </c>
+      <c r="S58" s="5">
+        <v>0</v>
+      </c>
+      <c r="T58" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="U58" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="V58" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="W58" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5">
+        <v>156.66666666666674</v>
+      </c>
+      <c r="Z58" s="5">
+        <v>1.044444444444444E-2</v>
+      </c>
+      <c r="AA58" s="5">
+        <v>780.2</v>
+      </c>
+      <c r="AB58" s="5">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="AC58" s="5">
+        <v>109372.1646000301</v>
+      </c>
+      <c r="AD58" s="5">
+        <v>24625.762656720326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2029</v>
+      </c>
+      <c r="B59" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="D59" s="5">
+        <v>6593101.7575752921</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1318620.3515150584</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5">
+        <v>2440550</v>
+      </c>
+      <c r="L59" s="5">
+        <v>53683.86090635891</v>
+      </c>
+      <c r="M59" s="5">
+        <v>1920564.7656234738</v>
+      </c>
+      <c r="N59" s="5">
+        <v>108919.67999999999</v>
+      </c>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5">
+        <v>75.323450116570413</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>711.28436753477695</v>
+      </c>
+      <c r="R59" s="5">
+        <v>0</v>
+      </c>
+      <c r="S59" s="5">
+        <v>0</v>
+      </c>
+      <c r="T59" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="U59" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="V59" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="W59" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5">
+        <v>156.66666666666674</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>1.044444444444444E-2</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>780.2</v>
+      </c>
+      <c r="AB59" s="5">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="AC59" s="5">
+        <v>109372.1646000301</v>
+      </c>
+      <c r="AD59" s="5">
+        <v>24625.762656720326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2032</v>
+      </c>
+      <c r="B60" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="D60" s="5">
+        <v>6390237.0881114341</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1278047.4176222868</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="I60" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5">
+        <v>2360380</v>
+      </c>
+      <c r="L60" s="5">
+        <v>50218.097507725346</v>
+      </c>
+      <c r="M60" s="5">
+        <v>1719339.9936117663</v>
+      </c>
+      <c r="N60" s="5">
+        <v>108919.67999999999</v>
+      </c>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5">
+        <v>70.77093390073405</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>668.29465301345385</v>
+      </c>
+      <c r="R60" s="5">
+        <v>0</v>
+      </c>
+      <c r="S60" s="5">
+        <v>0</v>
+      </c>
+      <c r="T60" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="U60" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="V60" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="W60" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5">
+        <v>156.66666666666674</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>1.044444444444444E-2</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>780.2</v>
+      </c>
+      <c r="AB60" s="5">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="AC60" s="5">
+        <v>109372.1646000301</v>
+      </c>
+      <c r="AD60" s="5">
+        <v>24625.762656720326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2035</v>
+      </c>
+      <c r="B61" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="D61" s="5">
+        <v>6194617.5854141433</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1238923.5170828286</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="I61" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5">
+        <v>2298270</v>
+      </c>
+      <c r="L61" s="5">
+        <v>47297.944165978362</v>
+      </c>
+      <c r="M61" s="5">
+        <v>1570173.8577770258</v>
+      </c>
+      <c r="N61" s="5">
+        <v>108919.67999999999</v>
+      </c>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5">
+        <v>65.183754908570592</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>615.53454882817641</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0</v>
+      </c>
+      <c r="S61" s="5">
+        <v>0</v>
+      </c>
+      <c r="T61" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="U61" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="V61" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="W61" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5">
+        <v>156.66666666666674</v>
+      </c>
+      <c r="Z61" s="5">
+        <v>1.044444444444444E-2</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>780.2</v>
+      </c>
+      <c r="AB61" s="5">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="AC61" s="5">
+        <v>109372.1646000301</v>
+      </c>
+      <c r="AD61" s="5">
+        <v>24625.762656720326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2038</v>
+      </c>
+      <c r="B62" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="D62" s="5">
+        <v>5998998.0827168524</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1199799.6165433705</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="I62" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5">
+        <v>2247810</v>
+      </c>
+      <c r="L62" s="5">
+        <v>44830.732781247381</v>
+      </c>
+      <c r="M62" s="5">
+        <v>1421007.7219422855</v>
+      </c>
+      <c r="N62" s="5">
+        <v>108919.67999999999</v>
+      </c>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5">
+        <v>59.596575916407573</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>562.77444464290625</v>
+      </c>
+      <c r="R62" s="5">
+        <v>0</v>
+      </c>
+      <c r="S62" s="5">
+        <v>0</v>
+      </c>
+      <c r="T62" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="U62" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="V62" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="W62" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5">
+        <v>156.66666666666674</v>
+      </c>
+      <c r="Z62" s="5">
+        <v>1.044444444444444E-2</v>
+      </c>
+      <c r="AA62" s="5">
+        <v>780.2</v>
+      </c>
+      <c r="AB62" s="5">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="AC62" s="5">
+        <v>109372.1646000301</v>
+      </c>
+      <c r="AD62" s="5">
+        <v>24625.762656720326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2041</v>
+      </c>
+      <c r="B63" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="D63" s="5">
+        <v>5803378.5800195616</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1160675.7160039125</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="I63" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5">
+        <v>2205460</v>
+      </c>
+      <c r="L63" s="5">
+        <v>42685.430962481747</v>
+      </c>
+      <c r="M63" s="5">
+        <v>1296702.6087466686</v>
+      </c>
+      <c r="N63" s="5">
+        <v>108919.67999999999</v>
+      </c>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5">
+        <v>54.009396924244555</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>510.01434045763608</v>
+      </c>
+      <c r="R63" s="5">
+        <v>0</v>
+      </c>
+      <c r="S63" s="5">
+        <v>0</v>
+      </c>
+      <c r="T63" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="U63" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="V63" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="W63" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5">
+        <v>156.66666666666674</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>1.044444444444444E-2</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>780.2</v>
+      </c>
+      <c r="AB63" s="5">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="AC63" s="5">
+        <v>109372.1646000301</v>
+      </c>
+      <c r="AD63" s="5">
+        <v>24625.762656720326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2044</v>
+      </c>
+      <c r="B64" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="D64" s="5">
+        <v>5607759.0773222726</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1121551.8154644545</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5">
+        <v>2169080</v>
+      </c>
+      <c r="L64" s="5">
+        <v>40821.926592024385</v>
+      </c>
+      <c r="M64" s="5">
+        <v>1222119.5408292983</v>
+      </c>
+      <c r="N64" s="5">
+        <v>108919.67999999999</v>
+      </c>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5">
+        <v>48.422217932081097</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>457.25423627236597</v>
+      </c>
+      <c r="R64" s="5">
+        <v>0</v>
+      </c>
+      <c r="S64" s="5">
+        <v>0</v>
+      </c>
+      <c r="T64" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="U64" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="V64" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="W64" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5">
+        <v>156.66666666666674</v>
+      </c>
+      <c r="Z64" s="5">
+        <v>1.044444444444444E-2</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>780.2</v>
+      </c>
+      <c r="AB64" s="5">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="AC64" s="5">
+        <v>109372.1646000301</v>
+      </c>
+      <c r="AD64" s="5">
+        <v>24625.762656720326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2047</v>
+      </c>
+      <c r="B65" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="D65" s="5">
+        <v>5412139.5746249817</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1082427.9149249964</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5">
+        <v>2137260</v>
+      </c>
+      <c r="L65" s="5">
+        <v>38139.41640668895</v>
+      </c>
+      <c r="M65" s="5">
+        <v>1147536.4729119281</v>
+      </c>
+      <c r="N65" s="5">
+        <v>108919.67999999999</v>
+      </c>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5">
+        <v>42.835038939918078</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>404.49413208708836</v>
+      </c>
+      <c r="R65" s="5">
+        <v>0</v>
+      </c>
+      <c r="S65" s="5">
+        <v>0</v>
+      </c>
+      <c r="T65" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="U65" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="V65" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="W65" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5">
+        <v>156.66666666666674</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>1.044444444444444E-2</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>780.2</v>
+      </c>
+      <c r="AB65" s="5">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="AC65" s="5">
+        <v>109372.1646000301</v>
+      </c>
+      <c r="AD65" s="5">
+        <v>24625.762656720326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2050</v>
+      </c>
+      <c r="B66" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="D66" s="5">
+        <v>5216520.0719277011</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1043304.0143855403</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <v>7373999.7322123339</v>
+      </c>
+      <c r="I66" s="5">
+        <v>1325804.7463737933</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5">
+        <v>2109020</v>
+      </c>
+      <c r="L66" s="5">
+        <v>36514.250460970019</v>
+      </c>
+      <c r="M66" s="5">
+        <v>1072953.4049945581</v>
+      </c>
+      <c r="N66" s="5">
+        <v>108919.67999999999</v>
+      </c>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5">
+        <v>37.24785994775462</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>351.73402790181819</v>
+      </c>
+      <c r="R66" s="5">
+        <v>0</v>
+      </c>
+      <c r="S66" s="5">
+        <v>0</v>
+      </c>
+      <c r="T66" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="U66" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="V66" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="W66" s="5">
+        <v>90.615628357904839</v>
+      </c>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5">
+        <v>156.66666666666674</v>
+      </c>
+      <c r="Z66" s="5">
+        <v>1.044444444444444E-2</v>
+      </c>
+      <c r="AA66" s="5">
+        <v>780.2</v>
+      </c>
+      <c r="AB66" s="5">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="AC66" s="5">
+        <v>109372.1646000301</v>
+      </c>
+      <c r="AD66" s="5">
+        <v>24625.762656720326</v>
       </c>
     </row>
   </sheetData>
@@ -6733,10 +7906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J39" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98:L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7856,7 +9029,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -7964,7 +9137,7 @@
         <v>20</v>
       </c>
       <c r="M43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N43" t="s">
         <v>35</v>
@@ -8133,7 +9306,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B50">
         <v>278</v>
@@ -8142,7 +9315,7 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E50" t="s">
         <v>20</v>
@@ -8165,10 +9338,16 @@
         <v>20</v>
       </c>
       <c r="M51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N51" t="s">
         <v>35</v>
+      </c>
+      <c r="O51" t="s">
+        <v>329</v>
+      </c>
+      <c r="P51" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -8182,7 +9361,7 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E52" t="s">
         <v>20</v>
@@ -8206,7 +9385,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53:M82" si="16">_xlfn.FORECAST.LINEAR(N53,$S$43:$S$44,$T$43:$T$44)</f>
@@ -8219,7 +9398,7 @@
         <v>3200</v>
       </c>
       <c r="Q53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -8243,10 +9422,10 @@
         <v>105.10938756963151</v>
       </c>
       <c r="R54" t="s">
+        <v>310</v>
+      </c>
+      <c r="S54" t="s">
         <v>311</v>
-      </c>
-      <c r="S54" t="s">
-        <v>312</v>
       </c>
       <c r="T54">
         <f>1-2^-0.133</f>
@@ -8270,7 +9449,7 @@
         <v>3013.4469103400429</v>
       </c>
       <c r="P55">
-        <f t="shared" ref="P55:S82" si="19">O54-O55</f>
+        <f t="shared" ref="P55:R82" si="19">O54-O55</f>
         <v>81.443702090325587</v>
       </c>
       <c r="Q55">
@@ -8946,7 +10125,7 @@
         <v>3.187255248440124E-2</v>
       </c>
     </row>
-    <row r="81" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M81">
         <f t="shared" si="16"/>
         <v>450</v>
@@ -8971,7 +10150,7 @@
         <v>2.8657317413490091E-2</v>
       </c>
     </row>
-    <row r="82" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="M82">
         <f t="shared" si="16"/>
         <v>464.28571428571377</v>
@@ -8994,6 +10173,766 @@
       <c r="R82">
         <f t="shared" si="19"/>
         <v>2.585663909530922E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85">
+        <v>2020</v>
+      </c>
+      <c r="C85">
+        <v>2021</v>
+      </c>
+      <c r="D85">
+        <v>2022</v>
+      </c>
+      <c r="E85">
+        <v>2023</v>
+      </c>
+      <c r="F85">
+        <v>2024</v>
+      </c>
+      <c r="G85">
+        <v>2025</v>
+      </c>
+      <c r="H85">
+        <v>2026</v>
+      </c>
+      <c r="I85">
+        <v>2027</v>
+      </c>
+      <c r="J85">
+        <v>2028</v>
+      </c>
+      <c r="K85">
+        <v>2029</v>
+      </c>
+      <c r="L85">
+        <v>2030</v>
+      </c>
+      <c r="M85">
+        <v>2031</v>
+      </c>
+      <c r="N85">
+        <v>2032</v>
+      </c>
+      <c r="O85">
+        <v>2033</v>
+      </c>
+      <c r="P85">
+        <v>2034</v>
+      </c>
+      <c r="Q85">
+        <v>2035</v>
+      </c>
+      <c r="R85">
+        <v>2036</v>
+      </c>
+      <c r="S85">
+        <v>2037</v>
+      </c>
+      <c r="T85">
+        <v>2038</v>
+      </c>
+      <c r="U85">
+        <v>2039</v>
+      </c>
+      <c r="V85">
+        <v>2040</v>
+      </c>
+      <c r="W85">
+        <v>2041</v>
+      </c>
+      <c r="X85">
+        <v>2042</v>
+      </c>
+      <c r="Y85">
+        <v>2043</v>
+      </c>
+      <c r="Z85">
+        <v>2044</v>
+      </c>
+      <c r="AA85">
+        <v>2045</v>
+      </c>
+      <c r="AB85">
+        <v>2046</v>
+      </c>
+      <c r="AC85">
+        <v>2047</v>
+      </c>
+      <c r="AD85">
+        <v>2048</v>
+      </c>
+      <c r="AE85">
+        <v>2049</v>
+      </c>
+      <c r="AF85">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="5">
+        <v>24966600</v>
+      </c>
+      <c r="C86" s="5">
+        <v>23328000</v>
+      </c>
+      <c r="D86" s="5">
+        <v>22307900</v>
+      </c>
+      <c r="E86" s="5">
+        <v>21575100</v>
+      </c>
+      <c r="F86" s="5">
+        <v>21007400</v>
+      </c>
+      <c r="G86" s="5">
+        <v>20546100</v>
+      </c>
+      <c r="H86" s="5">
+        <v>20159100</v>
+      </c>
+      <c r="I86" s="5">
+        <v>19826500</v>
+      </c>
+      <c r="J86" s="5">
+        <v>19535600</v>
+      </c>
+      <c r="K86" s="5">
+        <v>19277500</v>
+      </c>
+      <c r="L86" s="5">
+        <v>19045900</v>
+      </c>
+      <c r="M86" s="5">
+        <v>18836000</v>
+      </c>
+      <c r="N86" s="5">
+        <v>18644300</v>
+      </c>
+      <c r="O86" s="5">
+        <v>18468100</v>
+      </c>
+      <c r="P86" s="5">
+        <v>18305100</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>18153700</v>
+      </c>
+      <c r="R86" s="5">
+        <v>18012300</v>
+      </c>
+      <c r="S86" s="5">
+        <v>17879800</v>
+      </c>
+      <c r="T86" s="5">
+        <v>17755100</v>
+      </c>
+      <c r="U86" s="5">
+        <v>17637500</v>
+      </c>
+      <c r="V86" s="5">
+        <v>17526200</v>
+      </c>
+      <c r="W86" s="5">
+        <v>17420600</v>
+      </c>
+      <c r="X86" s="5">
+        <v>17320300</v>
+      </c>
+      <c r="Y86" s="5">
+        <v>17224600</v>
+      </c>
+      <c r="Z86" s="5">
+        <v>17133300</v>
+      </c>
+      <c r="AA86" s="5">
+        <v>17045900</v>
+      </c>
+      <c r="AB86" s="5">
+        <v>16962200</v>
+      </c>
+      <c r="AC86" s="5">
+        <v>16881900</v>
+      </c>
+      <c r="AD86" s="5">
+        <v>16804700</v>
+      </c>
+      <c r="AE86" s="5">
+        <v>16730400</v>
+      </c>
+      <c r="AF86" s="5">
+        <v>16658800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87">
+        <v>25</v>
+      </c>
+      <c r="C87">
+        <v>25</v>
+      </c>
+      <c r="D87">
+        <v>25</v>
+      </c>
+      <c r="E87">
+        <v>25</v>
+      </c>
+      <c r="F87">
+        <v>25</v>
+      </c>
+      <c r="G87">
+        <v>25</v>
+      </c>
+      <c r="H87">
+        <v>25</v>
+      </c>
+      <c r="I87">
+        <v>25</v>
+      </c>
+      <c r="J87">
+        <v>25</v>
+      </c>
+      <c r="K87">
+        <v>25</v>
+      </c>
+      <c r="L87">
+        <v>25</v>
+      </c>
+      <c r="M87">
+        <v>25</v>
+      </c>
+      <c r="N87">
+        <v>25</v>
+      </c>
+      <c r="O87">
+        <v>25</v>
+      </c>
+      <c r="P87">
+        <v>25</v>
+      </c>
+      <c r="Q87">
+        <v>25</v>
+      </c>
+      <c r="R87">
+        <v>25</v>
+      </c>
+      <c r="S87">
+        <v>25</v>
+      </c>
+      <c r="T87">
+        <v>25</v>
+      </c>
+      <c r="U87">
+        <v>25</v>
+      </c>
+      <c r="V87">
+        <v>25</v>
+      </c>
+      <c r="W87">
+        <v>25</v>
+      </c>
+      <c r="X87">
+        <v>25</v>
+      </c>
+      <c r="Y87">
+        <v>25</v>
+      </c>
+      <c r="Z87">
+        <v>25</v>
+      </c>
+      <c r="AA87">
+        <v>25</v>
+      </c>
+      <c r="AB87">
+        <v>25</v>
+      </c>
+      <c r="AC87">
+        <v>25</v>
+      </c>
+      <c r="AD87">
+        <v>25</v>
+      </c>
+      <c r="AE87">
+        <v>25</v>
+      </c>
+      <c r="AF87">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88">
+        <v>821947</v>
+      </c>
+      <c r="C88">
+        <v>768000</v>
+      </c>
+      <c r="D88">
+        <v>734415</v>
+      </c>
+      <c r="E88">
+        <v>710292</v>
+      </c>
+      <c r="F88">
+        <v>691600</v>
+      </c>
+      <c r="G88">
+        <v>676416</v>
+      </c>
+      <c r="H88">
+        <v>663674</v>
+      </c>
+      <c r="I88">
+        <v>652726</v>
+      </c>
+      <c r="J88">
+        <v>643149</v>
+      </c>
+      <c r="K88">
+        <v>634651</v>
+      </c>
+      <c r="L88">
+        <v>627024</v>
+      </c>
+      <c r="M88">
+        <v>620115</v>
+      </c>
+      <c r="N88">
+        <v>613805</v>
+      </c>
+      <c r="O88">
+        <v>608003</v>
+      </c>
+      <c r="P88">
+        <v>602639</v>
+      </c>
+      <c r="Q88">
+        <v>597652</v>
+      </c>
+      <c r="R88">
+        <v>592997</v>
+      </c>
+      <c r="S88">
+        <v>588634</v>
+      </c>
+      <c r="T88">
+        <v>584530</v>
+      </c>
+      <c r="U88">
+        <v>580658</v>
+      </c>
+      <c r="V88">
+        <v>576995</v>
+      </c>
+      <c r="W88">
+        <v>573519</v>
+      </c>
+      <c r="X88">
+        <v>570214</v>
+      </c>
+      <c r="Y88">
+        <v>567065</v>
+      </c>
+      <c r="Z88">
+        <v>564058</v>
+      </c>
+      <c r="AA88">
+        <v>561182</v>
+      </c>
+      <c r="AB88">
+        <v>558427</v>
+      </c>
+      <c r="AC88">
+        <v>555782</v>
+      </c>
+      <c r="AD88">
+        <v>553241</v>
+      </c>
+      <c r="AE88">
+        <v>550795</v>
+      </c>
+      <c r="AF88">
+        <v>548439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="5">
+        <v>3160790</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2953340</v>
+      </c>
+      <c r="D89" s="5">
+        <v>2824190</v>
+      </c>
+      <c r="E89" s="5">
+        <v>2731420</v>
+      </c>
+      <c r="F89" s="5">
+        <v>2659540</v>
+      </c>
+      <c r="G89" s="5">
+        <v>2601150</v>
+      </c>
+      <c r="H89" s="5">
+        <v>2552150</v>
+      </c>
+      <c r="I89" s="5">
+        <v>2510050</v>
+      </c>
+      <c r="J89" s="5">
+        <v>2473220</v>
+      </c>
+      <c r="K89" s="5">
+        <v>2440550</v>
+      </c>
+      <c r="L89" s="5">
+        <v>2411220</v>
+      </c>
+      <c r="M89" s="5">
+        <v>2384650</v>
+      </c>
+      <c r="N89" s="5">
+        <v>2360380</v>
+      </c>
+      <c r="O89" s="5">
+        <v>2338070</v>
+      </c>
+      <c r="P89" s="5">
+        <v>2317440</v>
+      </c>
+      <c r="Q89" s="5">
+        <v>2298270</v>
+      </c>
+      <c r="R89" s="5">
+        <v>2280370</v>
+      </c>
+      <c r="S89" s="5">
+        <v>2263590</v>
+      </c>
+      <c r="T89" s="5">
+        <v>2247810</v>
+      </c>
+      <c r="U89" s="5">
+        <v>2232920</v>
+      </c>
+      <c r="V89" s="5">
+        <v>2218830</v>
+      </c>
+      <c r="W89" s="5">
+        <v>2205460</v>
+      </c>
+      <c r="X89" s="5">
+        <v>2192760</v>
+      </c>
+      <c r="Y89" s="5">
+        <v>2180640</v>
+      </c>
+      <c r="Z89" s="5">
+        <v>2169080</v>
+      </c>
+      <c r="AA89" s="5">
+        <v>2158020</v>
+      </c>
+      <c r="AB89" s="5">
+        <v>2147430</v>
+      </c>
+      <c r="AC89" s="5">
+        <v>2137260</v>
+      </c>
+      <c r="AD89" s="5">
+        <v>2127480</v>
+      </c>
+      <c r="AE89" s="5">
+        <v>2118080</v>
+      </c>
+      <c r="AF89" s="5">
+        <v>2109020</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2020</v>
+      </c>
+      <c r="B92">
+        <f>$B$15*$B$4</f>
+        <v>19992000</v>
+      </c>
+      <c r="C92">
+        <f>B83*B71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2035</v>
+      </c>
+      <c r="B93">
+        <f>B92*B73</f>
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <f>C92*B73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2050</v>
+      </c>
+      <c r="B94">
+        <f>B93*B74</f>
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <f>C93*B74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96">
+        <v>2020</v>
+      </c>
+      <c r="C96">
+        <v>2023</v>
+      </c>
+      <c r="D96">
+        <v>2026</v>
+      </c>
+      <c r="E96">
+        <v>2029</v>
+      </c>
+      <c r="F96">
+        <v>2032</v>
+      </c>
+      <c r="G96">
+        <v>2035</v>
+      </c>
+      <c r="H96">
+        <v>2038</v>
+      </c>
+      <c r="I96">
+        <v>2041</v>
+      </c>
+      <c r="J96">
+        <v>2044</v>
+      </c>
+      <c r="K96">
+        <v>2047</v>
+      </c>
+      <c r="L96">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>6</v>
+      </c>
+      <c r="I97">
+        <v>7</v>
+      </c>
+      <c r="J97">
+        <v>8</v>
+      </c>
+      <c r="K97">
+        <v>9</v>
+      </c>
+      <c r="L97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98">
+        <f>INDEX($B89:$AF89,MATCH(B$96,$B$85:$AF$85))</f>
+        <v>3160790</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ref="C98:L98" si="20">INDEX($B89:$AF89,MATCH(C$96,$B$85:$AF$85))</f>
+        <v>2731420</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="20"/>
+        <v>2552150</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="20"/>
+        <v>2440550</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="20"/>
+        <v>2360380</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="20"/>
+        <v>2298270</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="20"/>
+        <v>2247810</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="20"/>
+        <v>2205460</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="20"/>
+        <v>2169080</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="20"/>
+        <v>2137260</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="20"/>
+        <v>2109020</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99">
+        <f>INDEX($B86:$AF86,MATCH(B$96,$B$85:$AF$85))</f>
+        <v>24966600</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ref="C99:L99" si="21">INDEX($B86:$AF86,MATCH(C$96,$B$85:$AF$85))</f>
+        <v>21575100</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="21"/>
+        <v>20159100</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="21"/>
+        <v>19277500</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="21"/>
+        <v>18644300</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="21"/>
+        <v>18153700</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="21"/>
+        <v>17755100</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="21"/>
+        <v>17420600</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="21"/>
+        <v>17133300</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="21"/>
+        <v>16881900</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="21"/>
+        <v>16658800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <f>INDEX($B88:$AF88,MATCH(B$96,$B$85:$AF$85))</f>
+        <v>821947</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ref="C100:L100" si="22">INDEX($B88:$AF88,MATCH(C$96,$B$85:$AF$85))</f>
+        <v>710292</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="22"/>
+        <v>663674</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="22"/>
+        <v>634651</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="22"/>
+        <v>613805</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="22"/>
+        <v>597652</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="22"/>
+        <v>584530</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="22"/>
+        <v>573519</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="22"/>
+        <v>564058</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="22"/>
+        <v>555782</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="22"/>
+        <v>548439</v>
       </c>
     </row>
   </sheetData>
@@ -9006,7 +10945,7 @@
   <dimension ref="A1:AL54"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10045,12 +11984,12 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37">
         <v>6.7619999999999996</v>
@@ -10063,21 +12002,21 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="I37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C38">
         <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H38">
         <v>6</v>
@@ -10085,13 +12024,13 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C39">
         <v>138</v>
       </c>
       <c r="G39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H39">
         <v>131</v>
@@ -10099,7 +12038,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C40">
         <f>C37/C38</f>
@@ -10110,10 +12049,10 @@
         <v>67.62</v>
       </c>
       <c r="E40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H40">
         <f>H37/H38</f>
@@ -10124,12 +12063,12 @@
         <v>87.333333333333329</v>
       </c>
       <c r="J40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C41">
         <f>C40/C39</f>
@@ -10140,7 +12079,7 @@
         <v>490</v>
       </c>
       <c r="E41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -10150,20 +12089,20 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I46">
         <v>680</v>
       </c>
       <c r="J46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K46">
         <f>I46/1000</f>
         <v>0.68</v>
       </c>
       <c r="L46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -10174,19 +12113,19 @@
     </row>
     <row r="49" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I49">
         <f>K46*I45</f>
         <v>89.080000000000013</v>
       </c>
       <c r="J49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I50">
         <v>6</v>
@@ -10194,14 +12133,14 @@
     </row>
     <row r="51" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I51">
         <f>I50*I49</f>
         <v>534.48</v>
       </c>
       <c r="J51" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K51">
         <v>524</v>
@@ -10223,7 +12162,7 @@
   <dimension ref="A1:AF117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF60" sqref="AF60"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14548,8 +16487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A6114F-8D0E-4B44-88E7-0468FA8129CB}">
   <dimension ref="A1:AQ54"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20136,8 +22075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D986E9-831C-4CFA-BA20-93A75977E223}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
